--- a/Contribuições concessões/contribuicoes_concessoes.xlsx
+++ b/Contribuições concessões/contribuicoes_concessoes.xlsx
@@ -8291,5152 +8291,5752 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>40969</v>
+        <v>40603</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0122138088813662</v>
+        <v>1794.98125787575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0119763274654187</v>
+        <v>463.979224135202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00112609821612819</v>
+        <v>60.8607791581025</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00052341715160277</v>
+        <v>402.594428428383</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00287434323340909</v>
+        <v>202.944123367301</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0115725678246582</v>
+        <v>619.537279597117</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.000349720009827644</v>
+        <v>54.1982830387038</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00270248497824691</v>
+        <v>24.7784968036063</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.000100798646760658</v>
+        <v>0.898314083514428</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0064788109443393</v>
+        <v>958.051970068138</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00367212111871549</v>
+        <v>176.219279382747</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0500872521618258</v>
+        <v>2296.2405164768</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.000186747327855098</v>
+        <v>21.4098189904272</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.00156249416929307</v>
+        <v>146.799493147649</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0555309133830852</v>
+        <v>6089.22201510255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>41000</v>
+        <v>40634</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0100119510288648</v>
+        <v>1962.04923301351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0090606962333128</v>
+        <v>505.006183560822</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00115379040660275</v>
+        <v>69.1577195678591</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0073048086530861</v>
+        <v>434.12812271018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000531967839020554</v>
+        <v>198.183315776551</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0239019564437752</v>
+        <v>674.115731658348</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0000078771746859936</v>
+        <v>56.341177011129</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00448850225324754</v>
+        <v>35.7830986818773</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00000931773816530912</v>
+        <v>0.172034128278256</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0258176722923992</v>
+        <v>1175.42318146119</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00299678195552736</v>
+        <v>132.466278774257</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0630351233741281</v>
+        <v>2456.13124942867</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.000325523837758401</v>
+        <v>23.0525731892864</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.00176196067030876</v>
+        <v>155.174783706987</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0606598585312366</v>
+        <v>6569.12318830522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>41030</v>
+        <v>40664</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000217244213087954</v>
+        <v>1885.46615531709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0122381436623642</v>
+        <v>492.661215406971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0027557206697419</v>
+        <v>68.6901199329244</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200026101314698</v>
+        <v>428.851125523102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000420052801188988</v>
+        <v>205.478841004948</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0187645157853236</v>
+        <v>642.6112296416</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000863256915590715</v>
+        <v>55.0851876749502</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00674517615661749</v>
+        <v>51.8318343089129</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000306661635921233</v>
+        <v>0.295759396912484</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.00556960347854015</v>
+        <v>950.940400922865</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00233672994996287</v>
+        <v>126.880781275456</v>
       </c>
       <c r="M4" t="n">
-        <v>0.048794783406732</v>
+        <v>2429.21980654069</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.000195601182340345</v>
+        <v>24.9916690391049</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.002317991091432</v>
+        <v>146.253021773223</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0572997400519673</v>
+        <v>6431.3620257112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>41061</v>
+        <v>40695</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00430342926892563</v>
+        <v>1915.28979831604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00830867095929626</v>
+        <v>524.861954180537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00185002342900991</v>
+        <v>71.8533385549246</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0150100909949188</v>
+        <v>469.018993538281</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00488989046522396</v>
+        <v>187.483845701978</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00269266941056745</v>
+        <v>633.686117094185</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000733691611877986</v>
+        <v>53.8319953005679</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00545927646222757</v>
+        <v>47.7217544546701</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0000352680955928476</v>
+        <v>0.696103387507343</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0171481251506291</v>
+        <v>978.566673193656</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00130619946209776</v>
+        <v>132.259643626395</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00605362295141378</v>
+        <v>2514.09340121402</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.00024316425530103</v>
+        <v>25.5237908752692</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.00393315086453287</v>
+        <v>156.236538084981</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0342417750511108</v>
+        <v>6600.37497552379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>41091</v>
+        <v>40725</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00132347634568024</v>
+        <v>1854.54665760363</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.000894969755635334</v>
+        <v>488.579143181969</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.000997296795036738</v>
+        <v>78.9201650595814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00245733339051377</v>
+        <v>464.87220514548</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00374524228166265</v>
+        <v>166.643557924243</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.00686792351300243</v>
+        <v>623.948076009215</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000661731280555795</v>
+        <v>53.5143584993052</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00604941533007405</v>
+        <v>45.4061223630469</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0000196234055848946</v>
+        <v>0.617770372286352</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.00323783414815448</v>
+        <v>930.28495936671</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.000468294164736827</v>
+        <v>135.67781801339</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.00476132795428832</v>
+        <v>2547.68501530892</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.000167215803037915</v>
+        <v>21.5447417334865</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.00367786463757816</v>
+        <v>140.311095805538</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.017873202390142</v>
+        <v>6486.58890900669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>41122</v>
+        <v>40756</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0175470467914788</v>
+        <v>1862.02479444902</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00281760100445317</v>
+        <v>496.010754653658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00148062157041076</v>
+        <v>64.4160688312426</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00825706965179742</v>
+        <v>475.639260693941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000019486007180142</v>
+        <v>174.422136213714</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00348666349973859</v>
+        <v>653.643969983329</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000508245825828863</v>
+        <v>53.5278565424284</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00247478374667865</v>
+        <v>22.6896294792708</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0000784762711436318</v>
+        <v>0.772711839851329</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00959141555976623</v>
+        <v>827.082654764504</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00191499222241298</v>
+        <v>133.889887886967</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0386094869998018</v>
+        <v>2499.37156926457</v>
       </c>
       <c r="N7" t="n">
-        <v>0.000079238195974564</v>
+        <v>21.9169176394195</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0000564854841909497</v>
+        <v>119.910828238747</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0547247969554967</v>
+        <v>6444.2060047674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>41153</v>
+        <v>40787</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00113795963449802</v>
+        <v>1905.69824284245</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00322139379112127</v>
+        <v>507.400479902231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00166085355502907</v>
+        <v>65.2044055620967</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00155073566269116</v>
+        <v>481.992190410898</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00441364376693746</v>
+        <v>186.276435608149</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0254467760731577</v>
+        <v>678.753371983844</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000629358776835871</v>
+        <v>52.9594467710926</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.00133338058092146</v>
+        <v>13.0102687154418</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0000436924262497209</v>
+        <v>0.535716947106428</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0102904252997125</v>
+        <v>1057.88790855031</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.00149746889297244</v>
+        <v>145.638478620505</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0397606676731223</v>
+        <v>2706.28895479679</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0000146998828989564</v>
+        <v>22.9592977331326</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00120946420818277</v>
+        <v>123.44449081181</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00612802735532791</v>
+        <v>6744.59983307749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>41183</v>
+        <v>40817</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0258144554100183</v>
+        <v>2053.14347575743</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00139376139298803</v>
+        <v>511.285534298129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00214414646179524</v>
+        <v>61.2902534072561</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0113408229833237</v>
+        <v>425.351158110932</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00238728008004029</v>
+        <v>175.629381499905</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0135440451425263</v>
+        <v>659.390311134723</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000662676022065321</v>
+        <v>56.7294904252541</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.000797572726916193</v>
+        <v>10.0816865917941</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0000624854561022236</v>
+        <v>0.640107085193276</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.023619711501886</v>
+        <v>1134.90986204768</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000434704437570132</v>
+        <v>133.222287105851</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0335233487941314</v>
+        <v>2818.39149610599</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0000909918420949244</v>
+        <v>24.084029080397</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.000798351222773418</v>
+        <v>136.182782374869</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00754506900179019</v>
+        <v>6932.27971925753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>41214</v>
+        <v>40848</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0100050858397558</v>
+        <v>2050.56206079485</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00616939307920443</v>
+        <v>557.116721536554</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00161207756914771</v>
+        <v>59.3016084504547</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00899790948997181</v>
+        <v>555.04713520137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00141384874679847</v>
+        <v>190.242743888036</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0183764642776126</v>
+        <v>706.684133990788</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000454198993713624</v>
+        <v>59.5404068737451</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.00112688193930114</v>
+        <v>11.7807222156608</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0000665293008501472</v>
+        <v>0.557196321010984</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00133091440807802</v>
+        <v>1038.85274078776</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.00113260876226878</v>
+        <v>156.412967255226</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0412605727470254</v>
+        <v>2880.62538015236</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.000275305080084811</v>
+        <v>25.0738344454943</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.00162362802863461</v>
+        <v>145.109841886146</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.00188893043589877</v>
+        <v>7241.48258680761</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>41244</v>
+        <v>40878</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00788727822126721</v>
+        <v>1818.22550020659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000233502410028812</v>
+        <v>494.30215661802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000787909860976825</v>
+        <v>49.9702398678669</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00364458515834504</v>
+        <v>386.081305722626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00139215743823885</v>
+        <v>156.895032668706</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00568536866416318</v>
+        <v>668.837980018178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000336262649756585</v>
+        <v>70.9231790631828</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.000937216141818258</v>
+        <v>11.1605002586734</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0000247667274004156</v>
+        <v>0.5760258198025</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0220950095555948</v>
+        <v>902.632459630518</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00218719162839298</v>
+        <v>163.015307004108</v>
       </c>
       <c r="M11" t="n">
-        <v>0.084036058076568</v>
+        <v>3148.26911813056</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.000082289237542655</v>
+        <v>21.6009682425938</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.00284314352924423</v>
+        <v>130.685857867692</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0887841541097403</v>
+        <v>6957.59986771197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>41275</v>
+        <v>40909</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00684037641161552</v>
+        <v>1806.52535849941</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0000529447703114642</v>
+        <v>485.248606997641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00136246732696442</v>
+        <v>60.9335346842249</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0162555320152723</v>
+        <v>352.784401162369</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00613802501391539</v>
+        <v>203.0640474318</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0042293054254677</v>
+        <v>546.89816441611</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000220121507166009</v>
+        <v>52.9856823341086</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.000798377723950156</v>
+        <v>8.37746599066312</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0000201950697448938</v>
+        <v>0.143204546848942</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0127620154033341</v>
+        <v>914.361031630496</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.00267166757504725</v>
+        <v>150.436376464814</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0560686523395633</v>
+        <v>2617.77911639866</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0000602695335630449</v>
+        <v>20.4782501993987</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.00225532185663021</v>
+        <v>113.561205651211</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0659228651776267</v>
+        <v>6268.85064058587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41306</v>
+        <v>40940</v>
       </c>
       <c r="B13" t="n">
-        <v>0.000695123243078339</v>
+        <v>1924.72328827086</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.004450433786406</v>
+        <v>515.935928497262</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0013571879110096</v>
+        <v>65.7857513691797</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0233524073853432</v>
+        <v>375.660947329845</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0110778325226416</v>
+        <v>231.857528961459</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.00437692020146945</v>
+        <v>530.441725879024</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00000701760184910561</v>
+        <v>50.4174471160698</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.000836139625235496</v>
+        <v>7.91938127328623</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0000236490124667934</v>
+        <v>0.156819431154183</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0253646412925017</v>
+        <v>1000.90001934157</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00181382440197604</v>
+        <v>156.192153429566</v>
       </c>
       <c r="M13" t="n">
-        <v>0.055813863243332</v>
+        <v>2648.75860190973</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.000150523864572404</v>
+        <v>20.4649357656209</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00364609255643333</v>
+        <v>127.964655821813</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0788310209270184</v>
+        <v>6500.16542134088</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>41334</v>
+        <v>40969</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.00364367461882952</v>
+        <v>1869.35385180442</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00278596134062232</v>
+        <v>536.905740997707</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00186763772918285</v>
+        <v>67.717841206918</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0255851209769273</v>
+        <v>399.407225185761</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0119448990594124</v>
+        <v>185.441609271466</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.00441574414983762</v>
+        <v>549.069344827941</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000293529227132873</v>
+        <v>52.0687602557395</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.000837998321172171</v>
+        <v>8.32246577858131</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00000141675080847852</v>
+        <v>0.284528744566882</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0265599370431771</v>
+        <v>918.601051834179</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.00102703239413688</v>
+        <v>153.858918624542</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0634685955684504</v>
+        <v>2601.23291501658</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.000230273520315189</v>
+        <v>20.2726730503904</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00174576096971135</v>
+        <v>137.285119253521</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0930047296072425</v>
+        <v>6427.36207539359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>41365</v>
+        <v>41000</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0248825962087076</v>
+        <v>2027.81897267741</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00808472678639463</v>
+        <v>564.527013289267</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000588676654513005</v>
+        <v>76.7371108823173</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0136212233594538</v>
+        <v>482.114310619301</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00632794013058578</v>
+        <v>201.677878043294</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.00122090533468591</v>
+        <v>517.100835337682</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.000143972070825685</v>
+        <v>56.2894308802409</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.000437085570416694</v>
+        <v>6.29757444930872</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0000141522058369249</v>
+        <v>0.233243498122545</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.000655094098697273</v>
+        <v>1005.82371173712</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000290663047595559</v>
+        <v>152.152508608607</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0110150156806859</v>
+        <v>2870.21674006333</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.000486890604496653</v>
+        <v>20.9141669983215</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00203247337289952</v>
+        <v>143.60024701078</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.00166785364418054</v>
+        <v>6967.60527158208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>41395</v>
+        <v>41030</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0015644170219555</v>
+        <v>1886.86333149945</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00559219107078</v>
+        <v>571.369147822298</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.000330133476375906</v>
+        <v>86.4131572017699</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00568827654562938</v>
+        <v>557.495152737743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00778168916318923</v>
+        <v>208.180352639309</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.000919406428831676</v>
+        <v>521.929835389011</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0000541852849937752</v>
+        <v>60.6371054203129</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.000702898840819677</v>
+        <v>8.45116451851051</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0000317487115025982</v>
+        <v>0.492984596913113</v>
       </c>
       <c r="K16" t="n">
-        <v>0.022961841692622</v>
+        <v>915.120264612713</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00305107690507821</v>
+        <v>141.909137539989</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0604354224759171</v>
+        <v>2743.03672359555</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.000698913383397304</v>
+        <v>23.733687022817</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00566413639691721</v>
+        <v>131.345181891851</v>
       </c>
       <c r="P16" t="n">
-        <v>0.069685987368993</v>
+        <v>6799.87739796454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>41426</v>
+        <v>41061</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.013277762879741</v>
+        <v>1943.69404517159</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0117273038833504</v>
+        <v>579.702298060137</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.000283949365080026</v>
+        <v>84.0641868998943</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00664860058648278</v>
+        <v>568.091222521477</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00223080316526776</v>
+        <v>219.758956361694</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0214843654695476</v>
+        <v>651.458744889052</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00032685793749946</v>
+        <v>58.674635055359</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.000957678450169589</v>
+        <v>11.6884827089172</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0000935617998958408</v>
+        <v>0.928886043092755</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000261528827933586</v>
+        <v>1091.75072931502</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00172312862467934</v>
+        <v>140.881049869068</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0657826081399362</v>
+        <v>2554.04958265379</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.000793793209817872</v>
+        <v>23.9188156096384</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00572101824084222</v>
+        <v>130.276267543759</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0314370455099691</v>
+        <v>6826.38353068866</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>41456</v>
+        <v>41091</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0140140646374127</v>
+        <v>1845.96181061841</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00569105054066154</v>
+        <v>482.773842291168</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.000166178121384518</v>
+        <v>72.4511107299082</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00809040031119461</v>
+        <v>480.811916662118</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00346977350703765</v>
+        <v>190.937404970019</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0130473694356776</v>
+        <v>579.398679521868</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.000431475527520337</v>
+        <v>57.8067372845012</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.000255105659863797</v>
+        <v>6.16605197701347</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0000472916696889282</v>
+        <v>0.490481407262435</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00725053925437064</v>
+        <v>909.282460292088</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000998430956552864</v>
+        <v>132.640186278256</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0818662168035581</v>
+        <v>2516.80023820849</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.000677292138429542</v>
+        <v>20.4600815600901</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00579625702103902</v>
+        <v>116.454299838595</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0648807222490135</v>
+        <v>6370.65279261437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>41487</v>
+        <v>41122</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00475869978061984</v>
+        <v>1748.94801014943</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.00139098046583722</v>
+        <v>477.853553341722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000579013695085856</v>
+        <v>73.9574992460718</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0152347407029897</v>
+        <v>528.849518525836</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00819941245966634</v>
+        <v>174.547708058193</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0143696340202833</v>
+        <v>631.17519212171</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.000146623592793349</v>
+        <v>56.8030973451327</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.000383251502343031</v>
+        <v>6.74161319842351</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0000222343805311312</v>
+        <v>0.266994582115783</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0245347157007289</v>
+        <v>888.891712508969</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005723828227132</v>
+        <v>121.54928350821</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1225961414544</v>
+        <v>2250.56408129946</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.000971455946212193</v>
+        <v>22.4275448977257</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00745629261928909</v>
+        <v>119.546824142342</v>
       </c>
       <c r="P19" t="n">
-        <v>0.141572833946567</v>
+        <v>6091.54813961711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>41518</v>
+        <v>41153</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0084340183958172</v>
+        <v>1898.02316048157</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00314453254567078</v>
+        <v>485.673467876358</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.000593851388414759</v>
+        <v>76.4061981721119</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00961501391254645</v>
+        <v>471.533098919164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0062213745937483</v>
+        <v>156.5081745944</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00281169296320107</v>
+        <v>507.125050328465</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.000192787493828961</v>
+        <v>57.2042198722857</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0000252897664761053</v>
+        <v>4.01715027193017</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0000454347680359192</v>
+        <v>0.24102901631581</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00201877469366344</v>
+        <v>1127.29270930904</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00474775682568358</v>
+        <v>135.538650174924</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0252743042208497</v>
+        <v>2974.45874734798</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.000959247587581095</v>
+        <v>23.0584425608792</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00596540975955405</v>
+        <v>131.601842908432</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0366323621416886</v>
+        <v>6785.93092535532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>41548</v>
+        <v>41183</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.012122232847201</v>
+        <v>1874.19045005488</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.00828604474484919</v>
+        <v>501.623590460034</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00104927029303765</v>
+        <v>76.1540764394771</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.000695871624100768</v>
+        <v>503.968915277916</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00320732615242924</v>
+        <v>192.178674782956</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00359654639531668</v>
+        <v>565.499201676479</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.00149649965964793</v>
+        <v>61.3233459734557</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0000805793743713655</v>
+        <v>4.55268935236004</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000122107535216851</v>
+        <v>0.206940425107275</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0066569907432965</v>
+        <v>971.17141502844</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00218407009819061</v>
+        <v>136.235779862289</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.00133361968191189</v>
+        <v>3050.78472707315</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.00101041830915276</v>
+        <v>23.4532481788245</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00485841279177453</v>
+        <v>130.648388384393</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.0214832364501687</v>
+        <v>6984.58424807903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>41579</v>
+        <v>41214</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0033780033402486</v>
+        <v>1978.11040590674</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00676115048302137</v>
+        <v>512.441168982323</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.000516347076754482</v>
+        <v>70.975440096021</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00730020783214844</v>
+        <v>489.888930312068</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00238274683438472</v>
+        <v>200.481104968357</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0013896582103061</v>
+        <v>573.611287917364</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.001096096339036</v>
+        <v>62.8294809776679</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000160104717931031</v>
+        <v>3.6204262748236</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000147417037899428</v>
+        <v>0.0754255473921583</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0166070678974555</v>
+        <v>1048.49053429839</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00179096407404884</v>
+        <v>148.211200625591</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0274654916027992</v>
+        <v>3179.41309922165</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.000776137948958026</v>
+        <v>23.0802175020004</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00989447640411589</v>
+        <v>133.352367789336</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0362326687057082</v>
+        <v>7227.80392994835</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>41609</v>
+        <v>41244</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00258576040604545</v>
+        <v>1873.10202611549</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00649039843985085</v>
+        <v>495.926772955147</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000745852040469987</v>
+        <v>55.4522014123682</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00715882621801475</v>
+        <v>411.438870938192</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00418887745935196</v>
+        <v>166.581107076831</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000983098325222728</v>
+        <v>629.281459752502</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.000823553003573334</v>
+        <v>73.2627600306457</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000715289537122631</v>
+        <v>4.6397253543412</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0000721372456905621</v>
+        <v>0.74834279908729</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0086711777828709</v>
+        <v>1056.36069519162</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00173824309683744</v>
+        <v>147.79770281974</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0363412638291643</v>
+        <v>3732.95838468713</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.000661706139967481</v>
+        <v>21.0284326543529</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00882035816518385</v>
+        <v>110.904402824736</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0528477705680832</v>
+        <v>7575.32448660082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>41640</v>
+        <v>41275</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00185783068998334</v>
+        <v>1763.6440604496</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.00562213228488897</v>
+        <v>485.580509854923</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00050166709223612</v>
+        <v>69.4746388596432</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00224200005840846</v>
+        <v>454.687903449373</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0019311980336809</v>
+        <v>241.542409472216</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00250587915124428</v>
+        <v>520.385280390434</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.000497286554883921</v>
+        <v>54.365591185313</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00011670741471276</v>
+        <v>3.3725552844487</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0000308167924187396</v>
+        <v>0.269804422755896</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0177979849131499</v>
+        <v>994.364200066854</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00332990118426498</v>
+        <v>133.688091475546</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0327001367576429</v>
+        <v>2969.26512353432</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.000837900724873846</v>
+        <v>20.1004294953142</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00842911472951022</v>
+        <v>99.4229297855476</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0357374607828327</v>
+        <v>6682.11123618389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>41671</v>
+        <v>41306</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.00276207872361679</v>
+        <v>1929.24170433909</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00370403039931021</v>
+        <v>487.007372688898</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000875469739461177</v>
+        <v>74.6076972985862</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0123331119989387</v>
+        <v>527.455458321118</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0118828586875465</v>
+        <v>303.865272868539</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000349501264868497</v>
+        <v>501.991020533463</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.000488353889392952</v>
+        <v>50.4630626889501</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00014333715281625</v>
+        <v>2.48433539391754</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0000442835475549946</v>
+        <v>0.310541924239693</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0172963873647697</v>
+        <v>1165.77438359581</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00490545791097555</v>
+        <v>144.401994771457</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0297893733407046</v>
+        <v>3011.55794579548</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.000589328262748601</v>
+        <v>19.4865057460407</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00947466159530421</v>
+        <v>104.264451063477</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0572823807307938</v>
+        <v>7012.58009769968</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>41699</v>
+        <v>41334</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0139859475924697</v>
+        <v>1845.93463574428</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00887915903297567</v>
+        <v>518.999358733478</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.000726669858720147</v>
+        <v>79.721825118042</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.00649297549513363</v>
+        <v>563.85206144722</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.00185831644469991</v>
+        <v>262.215800480337</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0086174644431946</v>
+        <v>520.687758344634</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.00119329682368576</v>
+        <v>53.9553788782329</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0000242270194192766</v>
+        <v>2.9363471498358</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0000763273340429722</v>
+        <v>0.29363471498358</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0271980230059953</v>
+        <v>1089.31138391034</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00305720442830409</v>
+        <v>147.257809564266</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0483210901745992</v>
+        <v>3009.16855915173</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.000568490613204094</v>
+        <v>18.7926217589491</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00337175184348861</v>
+        <v>148.505757102946</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0373840677835837</v>
+        <v>7025.13714730341</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>41730</v>
+        <v>41365</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0109422690360492</v>
+        <v>1854.44686416297</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00410841376005791</v>
+        <v>508.195828313082</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0000671974494287175</v>
+        <v>80.8387774435594</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.00255724077908348</v>
+        <v>577.021618304028</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000703564491530779</v>
+        <v>245.768467055419</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00182873477533057</v>
+        <v>508.594048891622</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.00152897679673145</v>
+        <v>55.2862903205952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000204000004891674</v>
+        <v>3.2521347247409</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0000180808471986294</v>
+        <v>0.331850482116418</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0314063207044569</v>
+        <v>1001.25927464166</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00478533706746343</v>
+        <v>154.177733991288</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0621834830895064</v>
+        <v>2946.96502138664</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.000306839318410206</v>
+        <v>17.5217054557469</v>
       </c>
       <c r="O27" t="n">
-        <v>0.00299616654931066</v>
+        <v>157.761719198145</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0702615935473296</v>
+        <v>6955.98432573866</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>41760</v>
+        <v>41395</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00321924742215776</v>
+        <v>1876.22548755086</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00993620692431382</v>
+        <v>533.342934155002</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.000693461710501525</v>
+        <v>84.1682900374499</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.00460747066693837</v>
+        <v>596.17473585374</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00374481885155441</v>
+        <v>261.094884898065</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.00201037835922534</v>
+        <v>515.677984394056</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.00172313435900108</v>
+        <v>60.2686521255814</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0000234691290039249</v>
+        <v>3.67153857776531</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0000872484969700218</v>
+        <v>0.277097251152099</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0111036277019342</v>
+        <v>1071.25797295401</v>
       </c>
       <c r="L28" t="n">
-        <v>0.000531086428435057</v>
+        <v>162.656086426282</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0269632341985552</v>
+        <v>3153.99018692597</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.000451839548853778</v>
+        <v>18.9811617039188</v>
       </c>
       <c r="O28" t="n">
-        <v>0.00172516936782271</v>
+        <v>169.860614956236</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00242151649965439</v>
+        <v>7273.7335684298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>41791</v>
+        <v>41426</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0107448477339294</v>
+        <v>1853.05494332494</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00663809102156045</v>
+        <v>499.647223971453</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0011011942824464</v>
+        <v>82.1258396305626</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.00381700099969191</v>
+        <v>613.47712006717</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00182537583760423</v>
+        <v>234.987274349286</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.00540607212948872</v>
+        <v>504.798226280437</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.00130343058909965</v>
+        <v>56.4433774139379</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.000218911905633792</v>
+        <v>5.15100230898405</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0000315425714419486</v>
+        <v>0.2901973131822</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0147003033106656</v>
+        <v>1093.53602539882</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00209659609598201</v>
+        <v>152.643786733837</v>
       </c>
       <c r="M29" t="n">
-        <v>0.051873213446768</v>
+        <v>3003.10689546599</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0000931920584567734</v>
+        <v>18.5000787153652</v>
       </c>
       <c r="O29" t="n">
-        <v>0.00261889682237584</v>
+        <v>169.330132241814</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0484425944220011</v>
+        <v>7040.98486041142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>41821</v>
+        <v>41456</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00959427611430535</v>
+        <v>1756.68307060019</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0055372837044931</v>
+        <v>446.518135271393</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.000284610110417806</v>
+        <v>71.3924476168385</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0120970528584735</v>
+        <v>532.353047997998</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00430646914983082</v>
+        <v>213.042127252368</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.00430914276682617</v>
+        <v>496.278418990197</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0021452671610437</v>
+        <v>55.0579565101591</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.000259089408786041</v>
+        <v>4.54086239259044</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0000191606399959507</v>
+        <v>0.189202599691268</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00603966394663453</v>
+        <v>955.473128440904</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00205733385895346</v>
+        <v>139.000843239852</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0285042574131274</v>
+        <v>3038.34148090885</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.000319878817266305</v>
+        <v>16.1452885069882</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00425855711134508</v>
+        <v>153.380240816388</v>
       </c>
       <c r="P30" t="n">
-        <v>0.00249422556123124</v>
+        <v>6783.98534699688</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>41852</v>
+        <v>41487</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.00120756320692953</v>
+        <v>1777.93585894506</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.00386346210589296</v>
+        <v>469.380328872807</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.000713473712269127</v>
+        <v>77.4845890431848</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0270352797246191</v>
+        <v>621.652674912682</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0010787491041224</v>
+        <v>224.494823772827</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.00687654840881399</v>
+        <v>543.641874738474</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.00191842178674618</v>
+        <v>55.9099326712284</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.000196485810844847</v>
+        <v>4.40701822232036</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0000182957057318244</v>
+        <v>0.131552782755832</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00599267804628498</v>
+        <v>1038.34611429178</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000755920119654179</v>
+        <v>156.416258696684</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0582978721293456</v>
+        <v>2997.36437870025</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.000411165462639265</v>
+        <v>16.5098742358569</v>
       </c>
       <c r="O31" t="n">
-        <v>0.00197305105956279</v>
+        <v>164.967189575813</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0191454122770935</v>
+        <v>6953.94587286464</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>41883</v>
+        <v>41518</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00891381720385596</v>
+        <v>1840.79049422438</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.00190222810900652</v>
+        <v>464.334887228904</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.000180554375427943</v>
+        <v>72.376363670403</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0161462513178589</v>
+        <v>536.779919176034</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00405593678482504</v>
+        <v>198.725992848336</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.000589254439296742</v>
+        <v>526.205004560055</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.00155632383930358</v>
+        <v>55.89597725589</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.00015027934858145</v>
+        <v>4.18876488035539</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0000606349482987718</v>
+        <v>0.5493462138171</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0206738996012884</v>
+        <v>1113.59344368399</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.00263614463746976</v>
+        <v>167.756600044397</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0348407012830772</v>
+        <v>3145.96842997708</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.000283775177898707</v>
+        <v>16.5490546912401</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0066912164031369</v>
+        <v>172.082701478207</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0157862450796098</v>
+        <v>7034.51560448142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>41913</v>
+        <v>41548</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0133063429375855</v>
+        <v>1789.52169345878</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.00110293551363022</v>
+        <v>443.749012856282</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.000536776032901815</v>
+        <v>68.825359678749</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0137920717444979</v>
+        <v>499.108541293537</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0199592248049737</v>
+        <v>214.580514505665</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.00500619621834503</v>
+        <v>540.378820376265</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.00116174610552679</v>
+        <v>50.8709180234232</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0000959835778593319</v>
+        <v>3.98987592340574</v>
       </c>
       <c r="J33" t="n">
-        <v>0.000341289053745105</v>
+        <v>1.05981079215465</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.00891987096681397</v>
+        <v>1017.66772771368</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.00196890720975271</v>
+        <v>151.490601466812</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0420985539638591</v>
+        <v>3041.46994804994</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.000302301763343695</v>
+        <v>16.3958963727455</v>
       </c>
       <c r="O33" t="n">
-        <v>0.00727501304970102</v>
+        <v>164.582381840487</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0619538704675844</v>
+        <v>6834.53277317143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>41944</v>
+        <v>41579</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0155651040107436</v>
+        <v>1953.69486008872</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.00405795851259714</v>
+        <v>463.572898950169</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.000337893129817009</v>
+        <v>67.2433846654376</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.00316175215963851</v>
+        <v>542.65340117071</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0188518631842104</v>
+        <v>217.703131901995</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.00521408043067218</v>
+        <v>583.655464991099</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.00152321708314675</v>
+        <v>54.9071115507815</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.000110724109913514</v>
+        <v>4.77763178428878</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.000134462884848473</v>
+        <v>1.14092699326299</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0119928247815719</v>
+        <v>1168.52316491254</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.000751884590030101</v>
+        <v>161.155937798398</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0153745560948965</v>
+        <v>3377.92828736632</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.000518775800990209</v>
+        <v>17.4704445843396</v>
       </c>
       <c r="O34" t="n">
-        <v>0.000631411760135667</v>
+        <v>204.867703227786</v>
       </c>
       <c r="P34" t="n">
-        <v>0.00421540700389689</v>
+        <v>7489.68655521199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>41974</v>
+        <v>41609</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0144285959047604</v>
+        <v>1892.69000023589</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00140622647989806</v>
+        <v>446.759898725949</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.00125028415884652</v>
+        <v>61.1022726379217</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.00737231219376381</v>
+        <v>465.669302482839</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00898304980040173</v>
+        <v>198.31321306603</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.00319947289745275</v>
+        <v>636.728748568298</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.00192464907478568</v>
+        <v>67.024078796663</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0000820110783479844</v>
+        <v>5.18158038889864</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0000101742948544998</v>
+        <v>0.201879755411635</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0198777126871407</v>
+        <v>1122.04768057787</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.000934523451307314</v>
+        <v>160.965458314877</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00881264632759174</v>
+        <v>4008.25525044622</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.000509453113326474</v>
+        <v>16.0157939293231</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.00285376486173586</v>
+        <v>177.721478014043</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.0152563856049549</v>
+        <v>7975.66349704748</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42005</v>
+        <v>41640</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00633895010000231</v>
+        <v>1751.22982912114</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.000902970283319674</v>
+        <v>448.012796542755</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0016503919282076</v>
+        <v>72.8268341734978</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0101154620195971</v>
+        <v>469.669197231189</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00506195705077831</v>
+        <v>228.63792939206</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.00723577655399919</v>
+        <v>537.129843623482</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.00185136566598953</v>
+        <v>51.04266710932</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.000202845950355429</v>
+        <v>4.15240721164681</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00000882107694103663</v>
+        <v>0.0638831878714893</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.00391913644271049</v>
+        <v>1113.29231503644</v>
       </c>
       <c r="L36" t="n">
-        <v>0.000782010760152496</v>
+        <v>155.938861594305</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0419819819934044</v>
+        <v>3187.77107478732</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.000470675659003871</v>
+        <v>14.5014836468281</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.0108786659766346</v>
+        <v>155.747212030691</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0200650952703882</v>
+        <v>6920.91292443354</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42036</v>
+        <v>41671</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.00121378139287767</v>
+        <v>1909.87240605358</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00439776787399928</v>
+        <v>461.032562829421</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.00294211514109891</v>
+        <v>80.74699896967</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0267602303389025</v>
+        <v>613.942394067577</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.012231319857204</v>
+        <v>387.194771204606</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0131965385950708</v>
+        <v>504.441926147601</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.00167080611663098</v>
+        <v>47.0384419235588</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0000566547192464946</v>
-      </c>
-      <c r="J37" t="e">
-        <v>#NUM!</v>
+        <v>3.48949865901772</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0161751881356215</v>
+        <v>1287.06668539209</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.000316003423377685</v>
+        <v>178.801911288068</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00450833875635094</v>
+        <v>3220.45831240745</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.000626472656659399</v>
+        <v>15.353794099678</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.01215902707459</v>
+        <v>170.706274399147</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.0706175777785231</v>
+        <v>7414.27738076131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42064</v>
+        <v>41699</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00977429824438361</v>
+        <v>1944.18783571637</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00331323832381659</v>
+        <v>456.622048774106</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.00158263265271822</v>
+        <v>74.6168696997214</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0131512819587363</v>
+        <v>518.238018099826</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00102550236004071</v>
+        <v>249.160872593231</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.00473374600756821</v>
+        <v>460.148888769181</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.00140270166904698</v>
+        <v>45.5723050343989</v>
       </c>
       <c r="I38" t="n">
-        <v>0.000450140424945288</v>
+        <v>2.766149015745</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.000113868197561323</v>
+        <v>0.8298447047235</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0364110483259773</v>
+        <v>1280.38122566297</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.000950718292597732</v>
+        <v>168.735089960445</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0138174939534379</v>
+        <v>3348.63084473551</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.000546761046947656</v>
+        <v>14.7988972342358</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.00961048942013135</v>
+        <v>172.192776230126</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.0499443920417287</v>
+        <v>7287.76535060717</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42095</v>
+        <v>41730</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00502836849263499</v>
+        <v>1930.56111606574</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00112199132702094</v>
+        <v>479.617766594471</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0023424198034865</v>
+        <v>80.3713530386036</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.0173352151753939</v>
+        <v>559.233491527583</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0014601615193635</v>
+        <v>250.662450630654</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0142634700840662</v>
+        <v>521.314699324755</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.00126343278315622</v>
+        <v>44.6507516881131</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000293805525554467</v>
+        <v>4.67115556121799</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0000276814054772274</v>
+        <v>0.206080392406676</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.019516263085555</v>
+        <v>1219.72114919098</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.00213252374137601</v>
+        <v>187.46446362594</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.00456468101466561</v>
+        <v>3379.51235507708</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.00058264101036759</v>
+        <v>15.3873359663651</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.00943820213461574</v>
+        <v>178.603006752453</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.0470599650050393</v>
+        <v>7444.72286915531</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>42125</v>
+        <v>41760</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00824756453260558</v>
+        <v>1852.80953951123</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00163552949522913</v>
+        <v>461.069612306756</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.00224081710417034</v>
+        <v>79.1242343153543</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0200730429043381</v>
+        <v>562.661221798075</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00142846650701109</v>
+        <v>233.856070309825</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0133529359545016</v>
+        <v>501.055027837313</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.00150644159095007</v>
+        <v>47.7350318956006</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000268432126369518</v>
+        <v>3.84224676922296</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000047869979882155</v>
+        <v>0.911719572357992</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0189693032913138</v>
+        <v>1152.02280250092</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.000281624264874657</v>
+        <v>166.519067608527</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0191455127851046</v>
+        <v>3350.11356862944</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.000630877471071673</v>
+        <v>15.6946012098769</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0105791006175695</v>
+        <v>182.409037298195</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.0208898307288781</v>
+        <v>7291.34703427984</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>42156</v>
+        <v>41791</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00674323750563667</v>
+        <v>1928.70925354696</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.000294948125845571</v>
+        <v>452.908525586612</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.00227207714934214</v>
+        <v>74.3723473594858</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0265631607335448</v>
+        <v>586.601673816164</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0016848059746174</v>
+        <v>247.839717986418</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.00913936807518154</v>
+        <v>466.734154262414</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.00162599954597844</v>
+        <v>47.2659423694901</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000398607038603929</v>
+        <v>3.6096468956527</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0000633944050716284</v>
+        <v>0.0681065452009944</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0380954184756181</v>
+        <v>1197.04063845268</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000181903137504709</v>
+        <v>167.405888104044</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0205653898488527</v>
+        <v>3368.34540600558</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.000956721262320018</v>
+        <v>17.8439148426605</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.00955627630129391</v>
+        <v>187.769745119141</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.0789399830789376</v>
+        <v>7382.06843433578</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42186</v>
+        <v>41821</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.00353230362549517</v>
+        <v>1691.59564202571</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00395870825028512</v>
+        <v>408.953283757947</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.00283029035249254</v>
+        <v>69.461656798157</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0166646378212443</v>
+        <v>450.286818664267</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.00398200456655383</v>
+        <v>242.257150862114</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0130568376637972</v>
+        <v>467.04525760193</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.00154484510967294</v>
+        <v>40.504495524245</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000528573855766717</v>
+        <v>2.78320363982385</v>
       </c>
       <c r="J42" t="n">
-        <v>0.00000718791553821719</v>
+        <v>0.0592170987196564</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0309668616496185</v>
+        <v>996.446120155658</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.000213736397568871</v>
+        <v>152.957765992873</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0369991232147769</v>
+        <v>3231.71394552653</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.00064818687105575</v>
+        <v>13.9752352978389</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.00632791827271842</v>
+        <v>182.270229859102</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.0890090939767874</v>
+        <v>6800.90613665638</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42217</v>
+        <v>41852</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00301374463022423</v>
+        <v>1769.53852976601</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.00517201717644799</v>
+        <v>442.514022506564</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.00275694659479659</v>
+        <v>72.5231314663535</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.00858881524958571</v>
+        <v>433.650803049927</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.000988355126886161</v>
+        <v>231.996386653295</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0165945961922583</v>
+        <v>495.822729311448</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.00160590422894539</v>
+        <v>42.5693314048712</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00036274998245021</v>
+        <v>3.04066652891937</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0000365143410074307</v>
+        <v>0.258780130120798</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0298479740577286</v>
+        <v>1080.01887305915</v>
       </c>
       <c r="L43" t="n">
-        <v>0.00194996499953636</v>
+        <v>161.672886292968</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0309809233582263</v>
+        <v>3402.7646259909</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.000592584558815617</v>
+        <v>13.6506518638721</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0102107495107094</v>
+        <v>178.687679848411</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.0741600403102564</v>
+        <v>7087.08203355323</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42248</v>
+        <v>41883</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00135949256719675</v>
+        <v>1778.08610800836</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00813690762626851</v>
+        <v>450.953633912815</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.00231281143020586</v>
+        <v>71.1062510989977</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.00196697938857523</v>
+        <v>423.198862326677</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.00256636260665693</v>
+        <v>227.257543451978</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0218701583721864</v>
+        <v>522.059885011812</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.00211352931521289</v>
+        <v>44.9479929226825</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000342834512645005</v>
+        <v>3.13162245772788</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.00000896464925755805</v>
+        <v>0.122808723832466</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0126374121988101</v>
+        <v>968.162574333244</v>
       </c>
       <c r="L44" t="n">
-        <v>0.000363949296926454</v>
+        <v>149.212599456446</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0401637280913971</v>
+        <v>3391.05588682396</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.000638874922075221</v>
+        <v>14.5528337741472</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.0142008968085478</v>
+        <v>219.152167679035</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.0922682927766418</v>
+        <v>7145.56419183011</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>42278</v>
+        <v>41913</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0146815743425885</v>
+        <v>1698.57905656079</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0124093497103636</v>
+        <v>436.210963941682</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00258627315273348</v>
+        <v>65.1567462900286</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.038663377178119</v>
+        <v>593.370907641239</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0275407167364962</v>
+        <v>350.992490562354</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.0220233511678103</v>
+        <v>506.163808253059</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.00176406927324706</v>
+        <v>42.9309261910961</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0002472034573303</v>
+        <v>3.33387301483989</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.000443312205204362</v>
+        <v>3.39236201510023</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.00622639852414492</v>
+        <v>956.704577258526</v>
       </c>
       <c r="L45" t="n">
-        <v>0.000893387264410824</v>
+        <v>138.034040614423</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0145365219468584</v>
+        <v>3329.19389481906</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.000697761379703356</v>
+        <v>14.3298050637855</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0151228598681345</v>
+        <v>214.303696953918</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.120850785912159</v>
+        <v>7257.95853130695</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>42309</v>
+        <v>41944</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00613860791092736</v>
+        <v>1837.11710984897</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0073861870031206</v>
+        <v>433.180061636763</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.00283738828311305</v>
+        <v>64.7126710339486</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0104088038532372</v>
+        <v>518.972868529753</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0268259966585175</v>
+        <v>358.897678133471</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02284498289677</v>
+        <v>544.6036368917</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.00130547388658763</v>
+        <v>43.498693042468</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000304592185713495</v>
+        <v>3.94834290693172</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.00000974129476741101</v>
+        <v>0.133842132438363</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0174816687195044</v>
+        <v>1078.70066638699</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.00175137182522387</v>
+        <v>155.524557893378</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00142524525355367</v>
+        <v>3493.07889344262</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.000549804809590306</v>
+        <v>13.5849764424939</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.012452116412425</v>
+        <v>209.596779398477</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.0767431521591807</v>
+        <v>7521.25863237382</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>42339</v>
+        <v>41974</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0165835657711547</v>
+        <v>1777.61237456464</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00455624537066382</v>
+        <v>435.544309521645</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.00230847912436592</v>
+        <v>51.1304269112728</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.0106559477309408</v>
+        <v>406.870221230199</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0176281524043389</v>
+        <v>269.958995451254</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0285270608021177</v>
+        <v>611.210829370292</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.00228042581930379</v>
+        <v>51.6737254262686</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000236092499381161</v>
+        <v>4.52748762496512</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.00000842732778738633</v>
+        <v>0.120733003332403</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0216646798544217</v>
+        <v>963.509733094245</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.00352393275017572</v>
+        <v>153.512013737151</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.069080762701017</v>
+        <v>4078.54195207358</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.00043844777031899</v>
+        <v>11.9525673299079</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.00436121707216855</v>
+        <v>154.96080977714</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.156177267195419</v>
+        <v>7853.98369928117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>42370</v>
+        <v>42005</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0198273576064183</v>
+        <v>1795.10115079558</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0105514924390062</v>
+        <v>441.763417838548</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.00273935406873415</v>
+        <v>61.4046153471851</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0169243021033679</v>
+        <v>399.660965403143</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.00813516211327186</v>
+        <v>263.671293367719</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0226647512321083</v>
+        <v>487.051664152596</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.00149596341785701</v>
+        <v>38.2295265437205</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000324013896989188</v>
+        <v>2.74852805216291</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0000176964527460471</v>
+        <v>0.124933093280132</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.025939252662078</v>
+        <v>1086.16831297747</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.00368721462379416</v>
+        <v>161.351089971291</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0480525687438694</v>
+        <v>3478.3247165588</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.000526873054319737</v>
+        <v>11.2439783952119</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.000746830826767001</v>
+        <v>80.4569120724052</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.131341553788361</v>
+        <v>7059.78170162036</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>42401</v>
+        <v>42036</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0223398342266972</v>
+        <v>1900.87309412718</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.007807894155029</v>
+        <v>428.426291955389</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.00233195337821511</v>
+        <v>58.933341227425</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0178755288132353</v>
+        <v>415.53462356189</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.00796457349756993</v>
+        <v>296.508373050482</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0147040684086834</v>
+        <v>406.599128537824</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.00102353860344271</v>
+        <v>34.6506219253841</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00030443773826946</v>
+        <v>3.06944485559505</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.000148482508760468</v>
+        <v>1.02314828519835</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0302752305858393</v>
+        <v>1167.1393538686</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.00538694547173114</v>
+        <v>176.458974253876</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.021515886351967</v>
+        <v>3253.88438647347</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.000531546109729599</v>
+        <v>10.7089520517427</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.000339986806614895</v>
+        <v>80.5558749879501</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.0962689562877578</v>
+        <v>6890.69907115385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>42430</v>
+        <v>42064</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0296991516458911</v>
+        <v>1872.95504364446</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.014134075225018</v>
+        <v>480.76815222872</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00300806496948766</v>
+        <v>63.0830142905021</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0197746331459508</v>
+        <v>422.394561124883</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.00707267932159471</v>
+        <v>256.634493159702</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0155083412435722</v>
+        <v>425.65045863665</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.001413048488757</v>
+        <v>35.3497444134795</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0000902923318938957</v>
-      </c>
-      <c r="J50" t="e">
-        <v>#NUM!</v>
+        <v>6.04666680756886</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0311726754592611</v>
+        <v>1015.02604929363</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0033027023632522</v>
+        <v>161.806478129463</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0409131848670174</v>
+        <v>3247.93219106942</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.000609982349784259</v>
+        <v>10.8142310212289</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.00409107008934456</v>
+        <v>102.153784431716</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.13629917022517</v>
+        <v>6923.78234082832</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>42461</v>
+        <v>42095</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.0332912751507131</v>
+        <v>1967.9959259774</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0116195015352014</v>
+        <v>471.264852103204</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0018589738078423</v>
+        <v>62.9326867584254</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0170501565527877</v>
+        <v>430.1776186696</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.00380349527449943</v>
+        <v>239.791952774788</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.0153464466555014</v>
+        <v>415.127117396395</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.001617728240668</v>
+        <v>35.2448447537095</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.000417923888737946</v>
-      </c>
-      <c r="J51" t="e">
-        <v>#NUM!</v>
+        <v>6.85845627639752</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0266687283298945</v>
+        <v>1074.4279790775</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.00417502709035968</v>
+        <v>171.588415359501</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.0414624883724944</v>
+        <v>3345.5295699368</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.000656484002848341</v>
+        <v>11.0497351119738</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.0034590453113538</v>
+        <v>108.338207477168</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.130576087400327</v>
+        <v>7094.37447146064</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>42491</v>
+        <v>42125</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0264725363057991</v>
+        <v>1912.94539470607</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0101586650396779</v>
+        <v>449.14439917224</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.00224068239025205</v>
+        <v>62.7856591684983</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0148584696561469</v>
+        <v>416.301699948557</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.00402322883159715</v>
+        <v>244.271515339288</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0134155507142029</v>
+        <v>403.694137866529</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.00150934504212117</v>
+        <v>36.751043469111</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.000489276557838032</v>
+        <v>5.79947855773278</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.000161215418974102</v>
+        <v>1.26075620820278</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0258925124889408</v>
+        <v>1013.71102920544</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0030293057974527</v>
+        <v>164.465647360052</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0439324956396591</v>
+        <v>3489.71014649488</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.000661752578643589</v>
+        <v>11.0946546321844</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.00105346681631026</v>
+        <v>105.273143384932</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.118984377502486</v>
+        <v>7139.03202894823</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>42522</v>
+        <v>42156</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0430669159218497</v>
+        <v>1878.93021281137</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0119576021180008</v>
+        <v>450.731198337041</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.00143391495569277</v>
+        <v>57.5997183549516</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0127427041873628</v>
+        <v>390.510603448876</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.000986002105138917</v>
+        <v>235.402364983215</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.013461965556816</v>
+        <v>399.266713684841</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.00170588365964001</v>
+        <v>35.2627024468784</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.000656339715595568</v>
+        <v>6.55219133303483</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0000634786648133223</v>
+        <v>0.536088381793759</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0210403255478159</v>
+        <v>915.817652231005</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0049122359829233</v>
+        <v>168.748709513524</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0391091414930635</v>
+        <v>3216.53029076255</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.000732853105086894</v>
+        <v>10.78133301163</v>
       </c>
       <c r="O53" t="n">
-        <v>0.000237805851386208</v>
+        <v>117.224659485569</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.125678995631674</v>
+        <v>6799.32807704175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>42552</v>
+        <v>42186</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0166257596198183</v>
+        <v>1667.57277662254</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.00736505180482959</v>
+        <v>382.030480525351</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.000943018256263285</v>
+        <v>50.2131177713711</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.00522973802693133</v>
+        <v>336.952181040611</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00112164796749442</v>
+        <v>215.175911569245</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0095750965294131</v>
+        <v>378.246930208886</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.000826067555089614</v>
+        <v>29.9981489376867</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.000757036722803482</v>
+        <v>6.37798481918384</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.00000866087433815714</v>
+        <v>0.108101437613285</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.00261326252507067</v>
+        <v>785.843400729779</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.00285440513191436</v>
+        <v>151.50416481502</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0166230177459732</v>
+        <v>2980.08638140425</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.000665433126291178</v>
+        <v>9.56697722877577</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.00535557077888715</v>
+        <v>139.234651645912</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.0296155549075137</v>
+        <v>6195.56364321142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>42583</v>
+        <v>42217</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0376648662827494</v>
+        <v>1790.89718518859</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0124131445811109</v>
+        <v>405.859512498131</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.00112834187555094</v>
+        <v>52.9844247869049</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0106679694481001</v>
+        <v>372.78116480508</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.00128341680925937</v>
+        <v>224.99183279077</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.00953511243931019</v>
+        <v>378.215464783224</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.000906495105019198</v>
+        <v>31.1881563963052</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.000621396896972751</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#NUM!</v>
+        <v>5.611505412214</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0236796877475995</v>
+        <v>868.483832376658</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.00850784780300386</v>
+        <v>175.49244820724</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0277139667743613</v>
+        <v>3183.20028067592</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.000603139848411249</v>
+        <v>9.45095648372885</v>
       </c>
       <c r="O55" t="n">
-        <v>0.000306572165723716</v>
+        <v>106.32326044195</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.102216192767846</v>
+        <v>6561.50374426282</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>42614</v>
+        <v>42248</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0268474193989672</v>
+        <v>1787.80044941558</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0136498679976653</v>
+        <v>392.810838146321</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0018599066479692</v>
+        <v>54.5799085608633</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0234825896373636</v>
+        <v>409.143684841606</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.00629932965148033</v>
+        <v>208.919434706598</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.00765461398400161</v>
+        <v>365.785264477863</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.000885589849790956</v>
+        <v>29.8456335295141</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.00055153949035028</v>
+        <v>5.58136847500755</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0000159923688121213</v>
+        <v>0.0587512471053427</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0112097802252273</v>
+        <v>877.86113424803</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.00427538888741144</v>
+        <v>151.813222520205</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.00517030001276722</v>
+        <v>3104.06338956367</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.000746571612073446</v>
+        <v>9.98771200790825</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.00406458850476579</v>
+        <v>117.678747952001</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.0911879743598041</v>
+        <v>6486.25518292404</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>42644</v>
+        <v>42278</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.00906520010581457</v>
+        <v>1805.1373143136</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00167503191567287</v>
+        <v>346.144418343377</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.000913688330672284</v>
+        <v>46.3856829968565</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.00122570700613217</v>
+        <v>312.753719402172</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00968075210551698</v>
+        <v>151.103110566393</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.00101915640683204</v>
+        <v>346.319238756681</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.000881369016509853</v>
+        <v>30.1273845595161</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.00050143138322527</v>
+        <v>5.12806545693891</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.0000185084588169756</v>
+        <v>0.174820413304736</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0059388967924663</v>
+        <v>911.513634970892</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.00189229563068448</v>
+        <v>144.518208331915</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0198319079941128</v>
+        <v>3223.68842133933</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.000563151129281991</v>
+        <v>9.26548190515099</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.00229431742417937</v>
+        <v>104.542607156232</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0146871408650688</v>
+        <v>6380.82853868065</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>42675</v>
+        <v>42309</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.0212513983205996</v>
+        <v>1883.28716758979</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.00602220680863584</v>
+        <v>377.626638879214</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.00041607623539358</v>
+        <v>43.3719399161882</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.0205824322698403</v>
+        <v>440.685562695907</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0119674461631948</v>
+        <v>157.132419193565</v>
       </c>
       <c r="G58" t="n">
-        <v>0.000407651654650045</v>
+        <v>372.780612072936</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.00114843545393155</v>
+        <v>33.6798863036322</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.000604973808604401</v>
+        <v>6.23925951308295</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0000320447355260834</v>
+        <v>0.0605753350784752</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.00812603231492414</v>
+        <v>947.216514622117</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.00148561724534402</v>
+        <v>142.352037434417</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0221236743743755</v>
+        <v>3503.79853160916</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.000537325818536592</v>
+        <v>9.44975227224213</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.00144921142643887</v>
+        <v>115.941191340202</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.0174893968291984</v>
+        <v>6944.05353672101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>42705</v>
+        <v>42339</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0143104686309918</v>
+        <v>1647.36531932203</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0153538729005018</v>
+        <v>399.759632650526</v>
       </c>
       <c r="D59" t="n">
-        <v>0.000410069710574823</v>
+        <v>32.999669498372</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.0107056696211828</v>
+        <v>323.178581450998</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00985261047748401</v>
+        <v>131.507773819132</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.00242615685358455</v>
+        <v>387.159758842057</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.000843426027651404</v>
+        <v>33.7632982140368</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.000668691939472582</v>
+        <v>6.38175426662731</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.0000082302494588611</v>
+        <v>0.0545449082617719</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.00798020127247129</v>
+        <v>793.355690667472</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.00141752750346245</v>
+        <v>125.835103359908</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.00687852589928484</v>
+        <v>3535.98276788588</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.000548300797546915</v>
+        <v>8.50900568883641</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.00200671340984775</v>
+        <v>120.707881983301</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.0434951194900753</v>
+        <v>6627.36998853007</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>42736</v>
+        <v>42370</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0169469426992401</v>
+        <v>1655.12433437431</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00824464540804489</v>
+        <v>367.272184592867</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0000151295108537502</v>
+        <v>42.0653736184764</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.000528619954069578</v>
+        <v>280.179087101092</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00417565063337139</v>
+        <v>206.238824740727</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00220836653981312</v>
+        <v>327.04346813238</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.000551904266180262</v>
+        <v>27.6683513800401</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.000612780759780473</v>
-      </c>
-      <c r="J60" t="e">
-        <v>#NUM!</v>
+        <v>5.03599543319788</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0196979573467745</v>
+        <v>903.042851680025</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.0027169752909039</v>
+        <v>135.320159640282</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.00489092142495924</v>
+        <v>3139.08407102498</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.000526694637787225</v>
+        <v>7.5243696472486</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.000747253827691103</v>
+        <v>75.1844494673896</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.0266001598269964</v>
+        <v>6132.5390035229</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>42767</v>
+        <v>42401</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0368984407222081</v>
+        <v>1746.93601917154</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.00549938023117447</v>
+        <v>374.624442953663</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00014682682083873</v>
+        <v>42.864552250184</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00581596206823689</v>
+        <v>292.359733772146</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00711265888006577</v>
+        <v>241.62689384864</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00566487986572592</v>
+        <v>305.277818011927</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.00105876643742576</v>
+        <v>27.5977254213514</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.000611851423854863</v>
-      </c>
-      <c r="J61" t="e">
-        <v>#NUM!</v>
+        <v>5.1672336959126</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0226138622815509</v>
+        <v>958.521850591787</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.00166403740154972</v>
+        <v>139.339154095461</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.00465803485979949</v>
+        <v>3105.62488837292</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.000449331778149221</v>
+        <v>7.04622776715354</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.00323668674572493</v>
+        <v>78.2131282154043</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.0336626900180598</v>
+        <v>6227.33866348085</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>42795</v>
+        <v>42430</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.00109716776078288</v>
+        <v>1667.32458194105</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.00781079226166882</v>
+        <v>382.906891781802</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00013716713934442</v>
+        <v>42.2558271746991</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00429423625698816</v>
+        <v>285.47930535259</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00676178902711708</v>
+        <v>207.664800970502</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0070785421387636</v>
+        <v>318.274079398866</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.000478456881745983</v>
+        <v>25.5661042402897</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.000638300842193407</v>
+        <v>5.4215023544897</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0000724128212387103</v>
+        <v>0.0531519838675461</v>
       </c>
       <c r="K62" t="n">
-        <v>0.00112189414204261</v>
+        <v>799.193229432423</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.00181901370388046</v>
+        <v>138.939285829765</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0427819227780704</v>
+        <v>2964.65820418012</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.000386685259652425</v>
+        <v>6.59084599957571</v>
       </c>
       <c r="O62" t="n">
-        <v>0.000825082837540661</v>
+        <v>73.8281055920215</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0515227317152775</v>
+        <v>5980.07655295374</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>42826</v>
+        <v>42461</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00534204283619092</v>
+        <v>1731.81515342581</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.00090264168524097</v>
+        <v>388.831757040773</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.00010914476215058</v>
+        <v>49.744430432955</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0111701599076577</v>
+        <v>309.217423287095</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00643348120865986</v>
+        <v>212.808532997058</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0097799036907843</v>
+        <v>306.253678015973</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0000992935622395156</v>
+        <v>23.7680748213535</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.000389859548628741</v>
-      </c>
-      <c r="J63" t="e">
-        <v>#NUM!</v>
+        <v>3.89354770912148</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.00147447107819453</v>
+        <v>885.230033627575</v>
       </c>
       <c r="L63" t="n">
-        <v>0.00386761858856286</v>
+        <v>141.969209751997</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0749662780759376</v>
+        <v>3051.37915090374</v>
       </c>
       <c r="N63" t="n">
-        <v>-0.00035244372119328</v>
+        <v>6.39239176124422</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.000289493839595432</v>
+        <v>83.7984447246742</v>
       </c>
       <c r="P63" t="n">
-        <v>0.10577902170856</v>
+        <v>6168.01881042455</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>42856</v>
+        <v>42491</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.0166283248483742</v>
+        <v>1723.95711013148</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.000410453262056574</v>
+        <v>376.621364082623</v>
       </c>
       <c r="D64" t="n">
-        <v>0.000340473711856217</v>
+        <v>46.7893558177886</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00687145846290387</v>
+        <v>310.226609172169</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0123748490004564</v>
+        <v>215.549555850728</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00961149020781886</v>
+        <v>307.920091631856</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.000324613386427515</v>
+        <v>25.9757808706737</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.000133410669707141</v>
+        <v>2.30651754031352</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0000174628260091331</v>
+        <v>0.109834168586358</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.00106599663231392</v>
+        <v>828.863553236953</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0160027448180243</v>
+        <v>142.839336246559</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0204868704979914</v>
+        <v>3176.07465301172</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.000345098386177088</v>
+        <v>6.37038177800878</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.00287888560375446</v>
+        <v>97.7524100418589</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0289556243115252</v>
+        <v>6289.59874701352</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>42887</v>
+        <v>42522</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00623907927630385</v>
+        <v>1586.10412219234</v>
       </c>
       <c r="C65" t="n">
-        <v>0.00377199779582119</v>
+        <v>369.427538522025</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.00000520105977222101</v>
+        <v>47.8500601366197</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0124314516534581</v>
+        <v>303.868777090302</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00581562890004079</v>
+        <v>228.698213185722</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0108874365033672</v>
+        <v>307.734393302212</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0000145225403295328</v>
+        <v>23.6638397837213</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.000136984561725148</v>
+        <v>2.08952227670828</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.000017574383578496</v>
+        <v>0.104476113835414</v>
       </c>
       <c r="K65" t="n">
-        <v>0.00313706440906591</v>
+        <v>772.757575983641</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0098011082521563</v>
+        <v>135.348805473779</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0685045729748616</v>
+        <v>2950.61440693977</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.000269305552034154</v>
+        <v>5.79842431786549</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.00131121550489031</v>
+        <v>118.841579487784</v>
       </c>
       <c r="P65" t="n">
-        <v>0.105942283841336</v>
+        <v>5944.7953533489</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>42917</v>
+        <v>42552</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.0000552527515608618</v>
+        <v>1564.56682478122</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00163499709800215</v>
+        <v>336.39983333298</v>
       </c>
       <c r="D66" t="n">
-        <v>0.000378227539393401</v>
+        <v>44.3705881479817</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00528379607224165</v>
+        <v>304.551006257435</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0049492475119637</v>
+        <v>222.125152937135</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00986694649183687</v>
+        <v>318.923810271014</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00000535925238890677</v>
+        <v>24.880194826537</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.0000338604599282766</v>
+        <v>1.68771562280666</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0000350266966308981</v>
+        <v>0.0544424394453763</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00542790795448401</v>
+        <v>769.652766439284</v>
       </c>
       <c r="L66" t="n">
-        <v>0.00936613097311223</v>
+        <v>133.819516156735</v>
       </c>
       <c r="M66" t="n">
-        <v>0.05870344908916</v>
+        <v>3083.07534579166</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.000253134365548663</v>
+        <v>5.44424394453763</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.00234360822416304</v>
+        <v>106.053872039593</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0781802494606947</v>
+        <v>6012.0785879529</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>42948</v>
+        <v>42583</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.00999630267833312</v>
+        <v>1543.75902404718</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0016729105808976</v>
+        <v>324.410617851096</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000864117624243427</v>
+        <v>45.5808053456688</v>
       </c>
       <c r="E67" t="n">
-        <v>0.00812406144694428</v>
+        <v>302.783243327689</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00387470891417875</v>
+        <v>216.570688591365</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0129178612327753</v>
+        <v>315.650788810723</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.000233904129540069</v>
+        <v>25.2401853705658</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.0000226427293007817</v>
+        <v>1.534207346054</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0000979964083040909</v>
+        <v>0.0989811191002581</v>
       </c>
       <c r="K67" t="n">
-        <v>0.00141963887158158</v>
+        <v>713.109472557809</v>
       </c>
       <c r="L67" t="n">
-        <v>0.00755718884306102</v>
+        <v>119.668172992212</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0241538344320163</v>
+        <v>3001.35498391758</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.000276551357398971</v>
+        <v>5.49345211006432</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.00369619963239599</v>
+        <v>108.334834855232</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0374716901812311</v>
+        <v>5890.81181269231</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>42979</v>
+        <v>42614</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.000106447405831032</v>
+        <v>1613.66123619089</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0108079905295774</v>
+        <v>304.274311100236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00133985474691567</v>
+        <v>42.5160794257182</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0164762209855348</v>
+        <v>256.829616097778</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0113821155682867</v>
+        <v>168.060375105737</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0148078871892514</v>
+        <v>316.13548485085</v>
       </c>
       <c r="H68" t="n">
-        <v>0.000107591111395354</v>
+        <v>24.1014717763626</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.0000765131660252429</v>
+        <v>2.00394259713576</v>
       </c>
       <c r="J68" t="n">
-        <v>0.000057113013490046</v>
+        <v>0.162481832200197</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0133282578117156</v>
+        <v>805.15163916271</v>
       </c>
       <c r="L68" t="n">
-        <v>0.00914249445945659</v>
+        <v>124.081959190217</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0612539944652117</v>
+        <v>3070.52750430859</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.000138984478124199</v>
+        <v>5.14525801967291</v>
       </c>
       <c r="O68" t="n">
-        <v>0.00267707760442739</v>
+        <v>91.3147896965107</v>
       </c>
       <c r="P68" t="n">
-        <v>0.118588120799151</v>
+        <v>5894.78671161242</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43009</v>
+        <v>42644</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.0133233596571479</v>
+        <v>1747.29382676957</v>
       </c>
       <c r="C69" t="n">
-        <v>0.000755637227241116</v>
+        <v>356.832509794103</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00168142391406314</v>
+        <v>40.5555944210433</v>
       </c>
       <c r="E69" t="n">
-        <v>0.00740678382082368</v>
+        <v>304.932693157383</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00725392709592476</v>
+        <v>212.874329877169</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0126776886500194</v>
+        <v>339.816176470588</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0000905567250047438</v>
+        <v>24.5035199858611</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.000078513400633617</v>
+        <v>1.928517776665</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0000399833954031488</v>
+        <v>0.0567211110783823</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.00138075841366372</v>
+        <v>873.618552829244</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0063612611813564</v>
+        <v>132.443794368023</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0358872878541904</v>
+        <v>3350.23242584465</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.000161150902071709</v>
+        <v>5.67211110783823</v>
       </c>
       <c r="O69" t="n">
-        <v>0.00151750939303091</v>
+        <v>89.9029610592359</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0537565347490665</v>
+        <v>6474.5446662641</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43040</v>
+        <v>42675</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00117430763091401</v>
+        <v>1735.71631992137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.00406613929461902</v>
+        <v>335.808112390841</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00151723536363027</v>
+        <v>40.4826842622579</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00912626778484514</v>
+        <v>297.760051098202</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00486795598370033</v>
+        <v>240.235006048616</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0112852204502437</v>
+        <v>375.611366987159</v>
       </c>
       <c r="H70" t="n">
-        <v>0.000373517529037556</v>
+        <v>25.7050890280631</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.0000323652672956599</v>
+        <v>2.03828899781998</v>
       </c>
       <c r="J70" t="n">
-        <v>0.00000694075487117765</v>
+        <v>0.283095694141664</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0102429381186213</v>
+        <v>890.788911186159</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00733472937800229</v>
+        <v>132.035831747672</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0467541652209304</v>
+        <v>3657.42651089381</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.000176235686193491</v>
+        <v>5.7185330216616</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.00190049662122401</v>
+        <v>105.877789608982</v>
       </c>
       <c r="P70" t="n">
-        <v>0.077070951193265</v>
+        <v>6822.60622881409</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43070</v>
+        <v>42705</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0082664372006779</v>
+        <v>1552.5245489952</v>
       </c>
       <c r="C71" t="n">
-        <v>0.014456939910508</v>
+        <v>298.003836182035</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00104340059335785</v>
+        <v>35.7173531914408</v>
       </c>
       <c r="E71" t="n">
-        <v>0.016470759039559</v>
+        <v>252.228147896453</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00957455947014546</v>
+        <v>196.804668806286</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0148401272539435</v>
+        <v>371.080719723144</v>
       </c>
       <c r="H71" t="n">
-        <v>0.000330421513237542</v>
+        <v>28.1736018708347</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0000297245740015984</v>
-      </c>
-      <c r="J71" t="e">
-        <v>#NUM!</v>
+        <v>1.95008537539475</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0221450557579164</v>
+        <v>740.467944251866</v>
       </c>
       <c r="L71" t="n">
-        <v>0.00874066763893839</v>
+        <v>116.440624125545</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0939805705062574</v>
+        <v>3490.39623177564</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.0000943646239962204</v>
+        <v>4.87521343848689</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.00358811745389437</v>
+        <v>107.408649755295</v>
       </c>
       <c r="P71" t="n">
-        <v>0.155335853554097</v>
+        <v>6339.11173897401</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43101</v>
+        <v>42736</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.00185931407579242</v>
+        <v>1551.19654728075</v>
       </c>
       <c r="C72" t="n">
-        <v>0.00998457967849378</v>
+        <v>316.711575057816</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00190311223492181</v>
+        <v>41.9725913030616</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00610617894996947</v>
+        <v>276.937304614719</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00922182543620316</v>
+        <v>231.846165114963</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0141534056039436</v>
+        <v>340.586362071859</v>
       </c>
       <c r="H72" t="n">
-        <v>0.000145200031821106</v>
+        <v>24.283776941479</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0000273628851262028</v>
+        <v>1.27809352323574</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.0000606631827486307</v>
+        <v>0.511237409294295</v>
       </c>
       <c r="K72" t="n">
-        <v>0.000900421810013542</v>
+        <v>782.2443599612</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00728350664747086</v>
+        <v>118.658202697206</v>
       </c>
       <c r="M72" t="n">
-        <v>0.073512293647831</v>
+        <v>3109.09030462325</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.0000199695486015473</v>
+        <v>4.29439423807208</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.00247655899229165</v>
+        <v>70.6018862235421</v>
       </c>
       <c r="P72" t="n">
-        <v>0.110628650652643</v>
+        <v>5969.4124858839</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43132</v>
+        <v>42767</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0290430989466161</v>
+        <v>1517.15693263998</v>
       </c>
       <c r="C73" t="n">
-        <v>0.00975148534427351</v>
+        <v>340.377939814888</v>
       </c>
       <c r="D73" t="n">
-        <v>0.00131456622629363</v>
+        <v>43.778892588429</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00949112671270435</v>
+        <v>328.577699225015</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00113577303958113</v>
+        <v>285.919829492624</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00943607016378675</v>
+        <v>340.554943423736</v>
       </c>
       <c r="H73" t="n">
-        <v>0.000341983104187302</v>
+        <v>21.004428249974</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0000253046939263443</v>
-      </c>
-      <c r="J73" t="e">
-        <v>#NUM!</v>
+        <v>1.3570276678354</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0140019246400042</v>
+        <v>817.697671675253</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0105707129148953</v>
+        <v>128.976629647313</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0775114329246876</v>
+        <v>3076.61772779465</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.000000460686108987406</v>
+        <v>4.2480866123543</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.00101047872694926</v>
+        <v>58.0571837021754</v>
       </c>
       <c r="P73" t="n">
-        <v>0.137017621280338</v>
+        <v>6017.70969241461</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43160</v>
+        <v>42795</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0110819887477108</v>
+        <v>1660.76343474014</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0103751226024413</v>
+        <v>336.197756117804</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00141318241389479</v>
+        <v>43.0760971685284</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00986234821957939</v>
+        <v>311.159166905849</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00319021989623375</v>
+        <v>248.100816987585</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0136274526871169</v>
+        <v>360.604303271981</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.0000480142083286419</v>
+        <v>22.7048954601611</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0000252509224300261</v>
+        <v>1.60441445435828</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.0000278353377505837</v>
+        <v>0.486186198290388</v>
       </c>
       <c r="K74" t="n">
-        <v>0.00297438540457639</v>
+        <v>805.902242286148</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0107670594108242</v>
+        <v>128.061444629688</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0588312842804174</v>
+        <v>3220.49737747553</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0000453437674177311</v>
+        <v>4.27843854495542</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.000204385679141807</v>
+        <v>78.7621641230429</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0860157125561634</v>
+        <v>6288.1864328284</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43191</v>
+        <v>42826</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.0185122503829022</v>
+        <v>1764.76497412553</v>
       </c>
       <c r="C75" t="n">
-        <v>0.00306655040290224</v>
+        <v>383.264246147134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00126448243350766</v>
+        <v>49.0712234869509</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.00101124231950502</v>
+        <v>378.115179712978</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00093680620435259</v>
+        <v>252.490366108584</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0104522452714135</v>
+        <v>366.576307944871</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.000221284882575451</v>
+        <v>24.3805193810009</v>
       </c>
       <c r="I75" t="n">
-        <v>0.000024477898673115</v>
+        <v>1.48888667975578</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.00000754495959244475</v>
+        <v>0.310184724949121</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.0169815849635743</v>
+        <v>894.324598973305</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00363663153547094</v>
+        <v>165.8247539578</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0085680064824552</v>
+        <v>3513.77256422364</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0000339493851556636</v>
+        <v>4.21851225930804</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.00142588383452192</v>
+        <v>82.0128412765476</v>
       </c>
       <c r="P75" t="n">
-        <v>0.00316831169936282</v>
+        <v>6820.46580607125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43221</v>
+        <v>42856</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.00632696380489875</v>
+        <v>1619.37161900021</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00905113024038116</v>
+        <v>374.039777759884</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00155770887145275</v>
+        <v>48.9307988492705</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00679415553304139</v>
+        <v>353.445325710605</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.000513370776776159</v>
+        <v>293.38239061848</v>
       </c>
       <c r="G76" t="n">
-        <v>0.00885969403928789</v>
+        <v>368.372508399886</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.000106636832068078</v>
+        <v>23.9340929221354</v>
       </c>
       <c r="I76" t="n">
-        <v>0.00000420372940466714</v>
-      </c>
-      <c r="J76" t="e">
-        <v>#NUM!</v>
+        <v>1.46741795928526</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.00922395239989414</v>
+        <v>822.158862154031</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.00676444530402522</v>
+        <v>243.490180002782</v>
       </c>
       <c r="M76" t="n">
-        <v>0.0614068332569399</v>
+        <v>3304.92884802612</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0000120313634685299</v>
+        <v>4.19985140071298</v>
       </c>
       <c r="O76" t="n">
-        <v>0.000905074410011391</v>
+        <v>79.6453747556896</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0816438600302445</v>
+        <v>6471.71800540228</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43252</v>
+        <v>42887</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.00906131514839641</v>
+        <v>1623.19417168329</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00296621154889526</v>
+        <v>391.851293491465</v>
       </c>
       <c r="D77" t="n">
-        <v>0.000994631348202103</v>
+        <v>47.8191409006533</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000741579881712824</v>
+        <v>377.771213115161</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00148188847518792</v>
+        <v>263.270936847486</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00103878548891696</v>
+        <v>372.457975237311</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.000229367655309392</v>
+        <v>23.7501733139911</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0000305490944811287</v>
-      </c>
-      <c r="J77" t="e">
-        <v>#NUM!</v>
+        <v>1.27517709068409</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.00228417452500485</v>
+        <v>791.406781905812</v>
       </c>
       <c r="L77" t="n">
-        <v>0.000061840609502021</v>
+        <v>193.614388268867</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0176344930853837</v>
+        <v>3357.86007404388</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.0000423381725770094</v>
+        <v>4.19745792350179</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.000207272097331602</v>
+        <v>111.046671647073</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0153239414040967</v>
+        <v>6574.60055005205</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43282</v>
+        <v>42917</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.0102929957362918</v>
+        <v>1564.23464089664</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0077397509325869</v>
+        <v>346.229564377244</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00145485952924667</v>
+        <v>46.6445218389428</v>
       </c>
       <c r="E78" t="n">
-        <v>0.00181339449746709</v>
+        <v>336.317603486468</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00270762503644217</v>
+        <v>251.880417930291</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00404831332652021</v>
+        <v>378.244668003064</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.000272397581967362</v>
+        <v>24.9124150730717</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0000250342322656373</v>
+        <v>1.48414387669364</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.0000184744759897988</v>
+        <v>0.265025692266721</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.0078208835356141</v>
+        <v>802.285775629817</v>
       </c>
       <c r="L78" t="n">
-        <v>0.000318677777156832</v>
+        <v>190.129431632145</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00625608469797254</v>
+        <v>3436.00509509958</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.0000373568370473399</v>
+        <v>3.92238024554747</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.00148016313627315</v>
+        <v>91.9639152165521</v>
       </c>
       <c r="P78" t="n">
-        <v>0.0119362040606406</v>
+        <v>6482.10439173636</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43313</v>
+        <v>42948</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.0109001354259223</v>
+        <v>1484.8726861464</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0113925242657196</v>
+        <v>334.265419262625</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00120624118551118</v>
+        <v>50.6711596541176</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00334247671517767</v>
+        <v>350.640560466387</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00361984882718736</v>
+        <v>239.395869633753</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00735013131400688</v>
+        <v>391.747478355476</v>
       </c>
       <c r="H79" t="n">
-        <v>0.000351115252129625</v>
+        <v>23.8623001612337</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0000818043208020739</v>
+        <v>1.40082328881736</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.000110652692812317</v>
+        <v>0.676259518739416</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.00695812128698808</v>
+        <v>721.472297992279</v>
       </c>
       <c r="L79" t="n">
-        <v>0.00410749715310885</v>
+        <v>164.186150299662</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0829206303681853</v>
+        <v>3143.64067711151</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.0000254455501768322</v>
+        <v>3.86434010708237</v>
       </c>
       <c r="O79" t="n">
-        <v>0.00251739729484383</v>
+        <v>86.5612183986452</v>
       </c>
       <c r="P79" t="n">
-        <v>0.101753839638424</v>
+        <v>6111.55048785345</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.00957423038231012</v>
+        <v>1613.03375143751</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00749177163407807</v>
+        <v>367.985110053221</v>
       </c>
       <c r="D80" t="n">
-        <v>0.000926371637621338</v>
+        <v>50.4142373833275</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00587586077815131</v>
+        <v>353.953424620898</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00862872836836469</v>
+        <v>235.15551870771</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00689439821710627</v>
+        <v>403.424821481105</v>
       </c>
       <c r="H80" t="n">
-        <v>0.000145042137024052</v>
+        <v>24.7356984301035</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0000863648175199427</v>
+        <v>1.55291380278677</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.00000793650527349288</v>
+        <v>0.499150865181461</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.012073777200161</v>
+        <v>883.718876200155</v>
       </c>
       <c r="L80" t="n">
-        <v>0.00833039860868</v>
+        <v>177.975014040812</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0610487605039214</v>
+        <v>3431.6067369153</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.0000800768932215403</v>
+        <v>4.32597416490599</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.0010204846772486</v>
+        <v>107.095591185045</v>
       </c>
       <c r="P80" t="n">
-        <v>0.0803976881844968</v>
+        <v>6593.83839025434</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43374</v>
+        <v>43009</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.0200126252717645</v>
+        <v>1661.03113956466</v>
       </c>
       <c r="C81" t="n">
-        <v>0.00995378622346751</v>
+        <v>361.724916773368</v>
       </c>
       <c r="D81" t="n">
-        <v>0.000920188771782624</v>
+        <v>51.4420486555698</v>
       </c>
       <c r="E81" t="n">
-        <v>0.00209204908072106</v>
+        <v>352.888245838668</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00428584948616323</v>
+        <v>259.840204865557</v>
       </c>
       <c r="G81" t="n">
-        <v>0.00422389634550086</v>
+        <v>421.898437900128</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.000116037787260543</v>
+        <v>25.089833546735</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0001578379667249</v>
+        <v>1.42017925736236</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.0000181038354933439</v>
+        <v>0.315595390524968</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.0197329151039779</v>
+        <v>864.678770806658</v>
       </c>
       <c r="L81" t="n">
-        <v>0.00421049638575983</v>
+        <v>173.630064020487</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02233969817646</v>
+        <v>3582.58627400768</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.0000942554545839347</v>
+        <v>4.6287323943662</v>
       </c>
       <c r="O81" t="n">
-        <v>0.00257041024151945</v>
+        <v>99.7281434058899</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0262956555542242</v>
+        <v>6822.59375160051</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43405</v>
+        <v>43040</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.00787335327762197</v>
+        <v>1743.72815847859</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0121802850430516</v>
+        <v>363.549779669535</v>
       </c>
       <c r="D82" t="n">
-        <v>0.00139496406624276</v>
+        <v>50.8341837047388</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00780489939910261</v>
+        <v>360.024982532912</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.000301715270139141</v>
+        <v>273.447152864602</v>
       </c>
       <c r="G82" t="n">
-        <v>0.00691158571587916</v>
+        <v>452.605982324532</v>
       </c>
       <c r="H82" t="n">
-        <v>0.000160230115672252</v>
+        <v>28.2534520482459</v>
       </c>
       <c r="I82" t="n">
-        <v>0.000105635634141699</v>
+        <v>1.81747352357138</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.0000305620634105245</v>
+        <v>0.330449731558432</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.0121142144721132</v>
+        <v>960.672444595622</v>
       </c>
       <c r="L82" t="n">
-        <v>0.00769488473858999</v>
+        <v>182.077802088696</v>
       </c>
       <c r="M82" t="n">
-        <v>0.094354881949968</v>
+        <v>3976.41176975313</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.0000671189060548943</v>
+        <v>4.51614633129857</v>
       </c>
       <c r="O82" t="n">
-        <v>0.00373668630431421</v>
+        <v>92.9114495231791</v>
       </c>
       <c r="P82" t="n">
-        <v>0.118376418711146</v>
+        <v>7348.43098048589</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43435</v>
+        <v>43070</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.00490228833641911</v>
+        <v>1604.92641809351</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0171746760013419</v>
+        <v>389.647993678378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00146560496112721</v>
+        <v>42.331586141248</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.00291276662716927</v>
+        <v>356.638129873934</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00335655931055814</v>
+        <v>257.49887113899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.00533506313614603</v>
+        <v>465.153944606485</v>
       </c>
       <c r="H83" t="n">
-        <v>0.000132242346742712</v>
+        <v>30.2681807642084</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0000904922971890383</v>
+        <v>2.13851277138429</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0000497062438327307</v>
+        <v>0.164500982414176</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.013413681027727</v>
+        <v>880.847927167108</v>
       </c>
       <c r="L83" t="n">
-        <v>0.00673042774949385</v>
+        <v>171.848692962009</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0748724388424539</v>
+        <v>4086.14956950733</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.0000932514726373201</v>
+        <v>4.27702554276858</v>
       </c>
       <c r="O83" t="n">
-        <v>0.00184148239279851</v>
+        <v>84.6631722824959</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0964174461433727</v>
+        <v>7323.80307172234</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.0083163299527792</v>
+        <v>1540.09753462153</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0172739266464618</v>
+        <v>376.313649656919</v>
       </c>
       <c r="D84" t="n">
-        <v>0.00215630032902928</v>
+        <v>53.3330532402423</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0128946206209552</v>
+        <v>313.387605479709</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.0037926333127701</v>
+        <v>286.895045016476</v>
       </c>
       <c r="G84" t="n">
-        <v>0.00569299274267289</v>
+        <v>425.073878201819</v>
       </c>
       <c r="H84" t="n">
-        <v>0.000158145987078317</v>
+        <v>25.1505358243826</v>
       </c>
       <c r="I84" t="n">
-        <v>0.000107677133356424</v>
+        <v>1.4414338713579</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.00000804280814769946</v>
+        <v>0.149113848761162</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.000306517589054795</v>
+        <v>787.619349156457</v>
       </c>
       <c r="L84" t="n">
-        <v>0.00612485052288644</v>
+        <v>162.136458219637</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0447786241061892</v>
+        <v>3547.91550819058</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.000138506757535187</v>
+        <v>4.17518776531253</v>
       </c>
       <c r="O84" t="n">
-        <v>0.00145634826014836</v>
+        <v>55.8182840529283</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0722484015210263</v>
+        <v>6629.80053438627</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43497</v>
+        <v>43132</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.0130868997143952</v>
+        <v>1691.92987066879</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0101592194784289</v>
+        <v>399.059547686562</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00261203732329003</v>
+        <v>51.6895705097171</v>
       </c>
       <c r="E85" t="n">
-        <v>0.00703722847521946</v>
+        <v>385.692544435991</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00971764449686596</v>
+        <v>292.754581921295</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0109781180728378</v>
+        <v>397.33847430666</v>
       </c>
       <c r="H85" t="n">
-        <v>0.000393935696146555</v>
+        <v>23.062383290684</v>
       </c>
       <c r="I85" t="n">
-        <v>0.000153607869415062</v>
+        <v>1.20475136593125</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.0000335381958127563</v>
+        <v>0.229476450653572</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.0063888465027814</v>
+        <v>901.957189293865</v>
       </c>
       <c r="L85" t="n">
-        <v>0.00598680138199105</v>
+        <v>192.58811121101</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0514575309518204</v>
+        <v>3543.05902897849</v>
       </c>
       <c r="N85" t="n">
-        <v>-0.000145099165773525</v>
+        <v>4.24531433709109</v>
       </c>
       <c r="O85" t="n">
-        <v>0.00319114609461698</v>
+        <v>51.9764160730341</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0824349313826598</v>
+        <v>6842.2419600249</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43525</v>
+        <v>43160</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.00172239491924994</v>
+        <v>1591.07782344803</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00807689464353591</v>
+        <v>401.438461305406</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001746451955677</v>
+        <v>51.9624516506933</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00584130934419992</v>
+        <v>373.175451176037</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00851610998073438</v>
+        <v>268.161514456821</v>
       </c>
       <c r="G86" t="n">
-        <v>0.000112925607940632</v>
+        <v>446.29626637312</v>
       </c>
       <c r="H86" t="n">
-        <v>0.000325934548283453</v>
+        <v>22.402973166766</v>
       </c>
       <c r="I86" t="n">
-        <v>0.000100169215319442</v>
+        <v>1.76319696219917</v>
       </c>
       <c r="J86" t="n">
-        <v>0.000106930326164516</v>
+        <v>0.311152405093972</v>
       </c>
       <c r="K86" t="n">
-        <v>0.00980774294331101</v>
+        <v>824.605732233208</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0081146965951556</v>
+        <v>195.766721538291</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0519395838979994</v>
+        <v>3590.43946111352</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.000180277886941958</v>
+        <v>4.56356860804492</v>
       </c>
       <c r="O86" t="n">
-        <v>0.00239447281039874</v>
+        <v>77.476948868399</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0772504848612532</v>
+        <v>6829.06926953413</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.00559536596444783</v>
+        <v>1638.50280339551</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00812265535817585</v>
+        <v>404.179548312723</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00324239252860985</v>
+        <v>57.6955826870677</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00638202744453813</v>
+        <v>371.218036051142</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00938187852241477</v>
+        <v>258.879820792287</v>
       </c>
       <c r="G87" t="n">
-        <v>0.00679544928524573</v>
+        <v>437.865489415217</v>
       </c>
       <c r="H87" t="n">
-        <v>0.000505643731147084</v>
+        <v>22.8712534059945</v>
       </c>
       <c r="I87" t="n">
-        <v>0.000154360673561223</v>
+        <v>1.65583735066024</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.000037813759670869</v>
+        <v>0.258724586040662</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0043434870201618</v>
+        <v>778.502279396353</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0074300527385415</v>
+        <v>190.62827499476</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0617349474363657</v>
+        <v>3572.21035946342</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.000174754183793206</v>
+        <v>4.45006287989939</v>
       </c>
       <c r="O87" t="n">
-        <v>0.00478511566648084</v>
+        <v>72.287649339761</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0952965367386274</v>
+        <v>6842.07516767973</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43586</v>
+        <v>43221</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.00199408059810132</v>
+        <v>1578.42529342452</v>
       </c>
       <c r="C88" t="n">
-        <v>0.00749172187979564</v>
+        <v>432.6161403058</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00258262555704953</v>
+        <v>59.0118513998262</v>
       </c>
       <c r="E88" t="n">
-        <v>0.00351540275265772</v>
+        <v>397.415184405292</v>
       </c>
       <c r="F88" t="n">
-        <v>0.000438826091799075</v>
+        <v>290.059999718971</v>
       </c>
       <c r="G88" t="n">
-        <v>0.00765234900477746</v>
+        <v>425.7099498363</v>
       </c>
       <c r="H88" t="n">
-        <v>0.000433222809107742</v>
+        <v>23.2439694160014</v>
       </c>
       <c r="I88" t="n">
-        <v>0.000162531289297472</v>
+        <v>1.49462331056328</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0000127827458949534</v>
+        <v>0.0515387348470097</v>
       </c>
       <c r="K88" t="n">
-        <v>0.00627570282566012</v>
+        <v>762.464043326662</v>
       </c>
       <c r="L88" t="n">
-        <v>0.006925781381382</v>
+        <v>199.712597532163</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0396902057038808</v>
+        <v>3702.33655646979</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.000100745739316235</v>
+        <v>4.27771499230181</v>
       </c>
       <c r="O88" t="n">
-        <v>0.00411662610053519</v>
+        <v>85.5027611111892</v>
       </c>
       <c r="P88" t="n">
-        <v>0.0640155452826645</v>
+        <v>7000.09404439056</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43617</v>
+        <v>43252</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0175624217799658</v>
+        <v>1563.61964412445</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0155928115431382</v>
+        <v>411.352949572402</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00432252306284592</v>
+        <v>54.3584447096419</v>
       </c>
       <c r="E89" t="n">
-        <v>0.015123724301136</v>
+        <v>382.646804613378</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00558866530302042</v>
+        <v>273.013761631572</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0175184109814824</v>
+        <v>379.28757488413</v>
       </c>
       <c r="H89" t="n">
-        <v>0.000532457294443945</v>
+        <v>22.2421726012299</v>
       </c>
       <c r="I89" t="n">
-        <v>0.000194678768557272</v>
-      </c>
-      <c r="J89" t="e">
-        <v>#NUM!</v>
+        <v>1.47602518406331</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0183371546980461</v>
+        <v>776.389246817301</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0109814333990837</v>
+        <v>194.020965574115</v>
       </c>
       <c r="M89" t="n">
-        <v>0.114469016646615</v>
+        <v>3473.79982198293</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.0000979304859246844</v>
+        <v>3.91910135078879</v>
       </c>
       <c r="O89" t="n">
-        <v>0.000803901293235758</v>
+        <v>109.683940401946</v>
       </c>
       <c r="P89" t="n">
-        <v>0.19165906934414</v>
+        <v>6675.34934363639</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="B90" t="n">
-        <v>0.00190599707898561</v>
+        <v>1497.5143680303</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0105566754894139</v>
+        <v>396.399437888311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00314242314554947</v>
+        <v>56.0750731828322</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0113364107731318</v>
+        <v>348.07221592245</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00636663318975567</v>
+        <v>269.431526070188</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0150017951942851</v>
+        <v>404.486257596025</v>
       </c>
       <c r="H90" t="n">
-        <v>0.000514241750563673</v>
+        <v>23.1467055107027</v>
       </c>
       <c r="I90" t="n">
-        <v>0.000207343301377229</v>
+        <v>1.64641838360647</v>
       </c>
       <c r="J90" t="n">
-        <v>0.000018898607924604</v>
+        <v>0.145272210318218</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0050669260621574</v>
+        <v>751.589992116354</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0064365966051315</v>
+        <v>192.195134251002</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0849387505099586</v>
+        <v>3476.55768919538</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.0000616680856043749</v>
+        <v>3.68022932806152</v>
       </c>
       <c r="O90" t="n">
-        <v>0.000761969520398962</v>
+        <v>82.3693432504296</v>
       </c>
       <c r="P90" t="n">
-        <v>0.134696852783302</v>
+        <v>6559.4761124985</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43678</v>
+        <v>43313</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0149962919759542</v>
+        <v>1418.25595816644</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0103770245828461</v>
+        <v>403.891406496666</v>
       </c>
       <c r="D91" t="n">
-        <v>0.00249409372169806</v>
+        <v>58.0431635598974</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0101225630596187</v>
+        <v>371.06827566567</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0084088427391442</v>
+        <v>261.518758499506</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0111533708635345</v>
+        <v>436.668176973381</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.00000700778516401638</v>
+        <v>26.0081587516793</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.000115262522904483</v>
-      </c>
-      <c r="J91" t="e">
-        <v>#NUM!</v>
+        <v>1.9007745255238</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0145414307627036</v>
+        <v>678.947388446244</v>
       </c>
       <c r="L91" t="n">
-        <v>0.00729780883563158</v>
+        <v>189.289326529601</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0550852276939615</v>
+        <v>3650.41429609131</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.0000845251897347594</v>
+        <v>3.70882834248546</v>
       </c>
       <c r="O91" t="n">
-        <v>0.000247001454721574</v>
+        <v>101.946419064069</v>
       </c>
       <c r="P91" t="n">
-        <v>0.112768093505032</v>
+        <v>6733.42421613663</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43709</v>
+        <v>43344</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000561878560034257</v>
+        <v>1549.9028235855</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00997813654603254</v>
+        <v>417.384641465024</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0023860543057326</v>
+        <v>56.5225822511179</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0147463950902768</v>
+        <v>392.697900995662</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00309782238434193</v>
+        <v>292.05195908211</v>
       </c>
       <c r="G92" t="n">
-        <v>0.00960996595054842</v>
+        <v>448.885369122761</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0000818181837736022</v>
+        <v>25.6920828414172</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.000249664945535271</v>
+        <v>2.12238945211708</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.0000351448229961306</v>
+        <v>0.446818832024647</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.000502492007938776</v>
+        <v>804.106340582356</v>
       </c>
       <c r="L92" t="n">
-        <v>0.000983736150785326</v>
+        <v>232.904316192847</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0541761056546674</v>
+        <v>3834.1523976035</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.0000919134047079845</v>
+        <v>3.7979600722095</v>
       </c>
       <c r="O92" t="n">
-        <v>0.000554092717004449</v>
+        <v>100.366680143536</v>
       </c>
       <c r="P92" t="n">
-        <v>0.0948302802015852</v>
+        <v>7123.96775309297</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.00647077075869846</v>
+        <v>1524.4931274324</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0156756241542715</v>
+        <v>429.635556466364</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00215926950202019</v>
+        <v>57.7201228202269</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0133060225425181</v>
+        <v>367.161446824837</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00561601065873498</v>
+        <v>289.080814790154</v>
       </c>
       <c r="G93" t="n">
-        <v>0.010176236915265</v>
+        <v>450.71636671435</v>
       </c>
       <c r="H93" t="n">
-        <v>0.000272475798006179</v>
+        <v>24.2981548644216</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.000311834858317061</v>
+        <v>2.49704358290499</v>
       </c>
       <c r="J93" t="n">
-        <v>0.000010953947020702</v>
+        <v>0.192080275608076</v>
       </c>
       <c r="K93" t="n">
-        <v>0.00194512853290631</v>
+        <v>730.049107517395</v>
       </c>
       <c r="L93" t="n">
-        <v>0.00422742062522492</v>
+        <v>202.356570353108</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0509907318959873</v>
+        <v>3735.00095919904</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.000102186764583653</v>
+        <v>3.98566571886758</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.00290275644540641</v>
+        <v>117.26500825873</v>
       </c>
       <c r="P93" t="n">
-        <v>0.0884266346388574</v>
+        <v>7001.998326879</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43770</v>
+        <v>43405</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.00437828210979044</v>
+        <v>1685.871365333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00931568522043234</v>
+        <v>453.055763631044</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00134217383136375</v>
+        <v>61.0849808657817</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0100520640918316</v>
+        <v>417.378747076853</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00685528431475267</v>
+        <v>271.230019026226</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00818595169012312</v>
+        <v>503.395292923383</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.000132269812229096</v>
+        <v>29.4308919942588</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.000290657114540842</v>
+        <v>2.59372969014151</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.000000408488739330744</v>
+        <v>0.10586651796496</v>
       </c>
       <c r="K94" t="n">
-        <v>0.00247421008560689</v>
+        <v>871.651975664494</v>
       </c>
       <c r="L94" t="n">
-        <v>0.000738214633851735</v>
+        <v>238.623131493019</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0164452761525859</v>
+        <v>4669.77210743437</v>
       </c>
       <c r="N94" t="n">
-        <v>-0.000102835638005265</v>
+        <v>4.02292768266846</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.00361395871696918</v>
+        <v>120.370230926159</v>
       </c>
       <c r="P94" t="n">
-        <v>0.0436780234208149</v>
+        <v>8218.31192310184</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43800</v>
+        <v>43435</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.00478110237883104</v>
+        <v>1569.02302371677</v>
       </c>
       <c r="C95" t="n">
-        <v>0.00342844013628752</v>
+        <v>515.431938532842</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00143278278723347</v>
+        <v>53.0653882574829</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0246342503825542</v>
+        <v>335.305600702661</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00528172146512914</v>
+        <v>282.081650528074</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0101245614947207</v>
+        <v>504.226896390824</v>
       </c>
       <c r="H95" t="n">
-        <v>0.000010386131598196</v>
+        <v>31.2366976694944</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.00031279246985192</v>
+        <v>2.80126053550458</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.0000177420433690104</v>
+        <v>0.528539723680109</v>
       </c>
       <c r="K95" t="n">
-        <v>0.000409618630730878</v>
+        <v>782.608768853137</v>
       </c>
       <c r="L95" t="n">
-        <v>0.000766993817778955</v>
+        <v>221.141020387758</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0722995111280245</v>
+        <v>4634.50056708904</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.0000629510448003922</v>
+        <v>3.59407012102474</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.000419570756532778</v>
+        <v>98.1498266873962</v>
       </c>
       <c r="P95" t="n">
-        <v>0.111617494832162</v>
+        <v>8029.94545995479</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.00555869916978466</v>
+        <v>1484.96192585647</v>
       </c>
       <c r="C96" t="n">
-        <v>0.00699950019629675</v>
+        <v>490.83633776858</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00106575561670019</v>
+        <v>67.6288943139379</v>
       </c>
       <c r="E96" t="n">
-        <v>0.00872270220166209</v>
+        <v>398.876368163226</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00612324240135073</v>
+        <v>261.750642652741</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00869709397531646</v>
+        <v>462.817284529449</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.000141803484483382</v>
+        <v>26.1990121740255</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.00026439064187176</v>
+        <v>2.1553117876255</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.00000700860592083208</v>
+        <v>0.0957916350055777</v>
       </c>
       <c r="K96" t="n">
-        <v>0.00923068595021057</v>
+        <v>785.587198680743</v>
       </c>
       <c r="L96" t="n">
-        <v>0.00235743693244397</v>
+        <v>202.742995489305</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0698645388168916</v>
+        <v>3844.78885421887</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.0000572310108667703</v>
+        <v>3.25691559018964</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.00106245332940528</v>
+        <v>65.4735825263124</v>
       </c>
       <c r="P96" t="n">
-        <v>0.0943750515407864</v>
+        <v>7108.79302539893</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>43862</v>
+        <v>43497</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.00255170301519549</v>
+        <v>1602.38613631631</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0103858486999789</v>
+        <v>468.57138548297</v>
       </c>
       <c r="D97" t="n">
-        <v>0.000780310231708168</v>
+        <v>69.5617618842833</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0109384809309168</v>
+        <v>433.84296439142</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00646516496862747</v>
+        <v>359.245056850356</v>
       </c>
       <c r="G97" t="n">
-        <v>0.00358896540005227</v>
+        <v>472.453414426739</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.00012998424980907</v>
+        <v>25.7577866404096</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.000240056213073055</v>
-      </c>
-      <c r="J97" t="e">
-        <v>#NUM!</v>
+        <v>2.25577357543302</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.00940210640390942</v>
+        <v>858.243155676376</v>
       </c>
       <c r="L97" t="n">
-        <v>0.00466839998083416</v>
+        <v>233.551254833205</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0714975971040954</v>
+        <v>3895.14390641632</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.0000305321506148776</v>
+        <v>3.25251073667086</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.00181503660874262</v>
+        <v>73.811009782192</v>
       </c>
       <c r="P97" t="n">
-        <v>0.0989248992678702</v>
+        <v>7406.2817065031</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43891</v>
+        <v>43525</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.0172732466439267</v>
+        <v>1579.31546923497</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0152757753152015</v>
+        <v>456.596134308842</v>
       </c>
       <c r="D98" t="n">
-        <v>0.000266073275406192</v>
+        <v>63.8890930319249</v>
       </c>
       <c r="E98" t="n">
-        <v>0.00237597975613149</v>
+        <v>413.066157312355</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00539773356126176</v>
+        <v>326.318619422227</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.00689872540889349</v>
+        <v>447.067443172051</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.000906191218569082</v>
+        <v>24.628802774328</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.00028906000868502</v>
+        <v>2.44725947229052</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.000129100436962903</v>
+        <v>1.04138700948533</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.00364042599978925</v>
+        <v>891.583488170863</v>
       </c>
       <c r="L98" t="n">
-        <v>0.000394409224955838</v>
+        <v>251.182546687861</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.0374636204610397</v>
+        <v>3945.13847738374</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.000091720294814088</v>
+        <v>3.33243843035305</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.00293169624394308</v>
+        <v>93.828969554628</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.0426607209166293</v>
+        <v>7356.61818175673</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.0467092569207933</v>
+        <v>1600.21888887609</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0195720685835986</v>
+        <v>459.755366834518</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.0029070217143335</v>
+        <v>79.8802760909395</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.00268249515403551</v>
+        <v>414.884347548867</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0137316463461227</v>
+        <v>323.071338856689</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0353646405696673</v>
+        <v>484.360464223024</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.00123313482359567</v>
+        <v>26.3309058225689</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.000348388992972257</v>
-      </c>
-      <c r="J99" t="e">
-        <v>#NUM!</v>
+        <v>2.7119846820998</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0181959986125471</v>
+        <v>808.220744078141</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0082263151410976</v>
+        <v>241.465254331686</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.120574856503004</v>
+        <v>3994.6055102958</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.000137400202758581</v>
+        <v>3.25438161851976</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.00361117052482126</v>
+        <v>105.027770415865</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.18026465047626</v>
+        <v>7494.10123526497</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>43952</v>
+        <v>43586</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.0598870599400497</v>
+        <v>1564.46654170572</v>
       </c>
       <c r="C100" t="n">
-        <v>0.000612894849118592</v>
+        <v>485.058898018788</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.00246610856503109</v>
+        <v>77.0904731806194</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000640029968224247</v>
+        <v>422.023334277806</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00883440389281858</v>
+        <v>293.131823630697</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0216975396852918</v>
+        <v>479.277112530241</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.000413789476490317</v>
+        <v>26.2765698219306</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.000339793050251648</v>
+        <v>2.63235762080164</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.0000189332979911771</v>
+        <v>0.141019158257231</v>
       </c>
       <c r="K100" t="n">
-        <v>0.00222625405662011</v>
+        <v>806.394553300931</v>
       </c>
       <c r="L100" t="n">
-        <v>0.00196161375161693</v>
+        <v>248.193718532726</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.0759574470381672</v>
+        <v>3980.17172903816</v>
       </c>
       <c r="N100" t="n">
-        <v>-0.000213887560228503</v>
+        <v>3.57248534251651</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.00305567552172206</v>
+        <v>114.319530960528</v>
       </c>
       <c r="P100" t="n">
-        <v>-0.153969216524392</v>
+        <v>7448.20888167215</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>43983</v>
+        <v>43617</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.0729047715407024</v>
+        <v>1680.85494482601</v>
       </c>
       <c r="C101" t="n">
-        <v>0.00505365998994798</v>
+        <v>515.440413872336</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.00334544482636815</v>
+        <v>83.2127962000635</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.00524741462469113</v>
+        <v>483.602947700304</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0117239402539876</v>
+        <v>310.320054893893</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.00725285456284543</v>
+        <v>496.229088130922</v>
       </c>
       <c r="H101" t="n">
-        <v>0.000642038693333669</v>
+        <v>25.7965110522107</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.000318616925104831</v>
+        <v>2.77557397397203</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.0000213055695384635</v>
+        <v>0.217692076389963</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.0161741169402459</v>
+        <v>898.796160395062</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.00730820560412507</v>
+        <v>267.325869806875</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.0683602335778335</v>
+        <v>4237.92049712161</v>
       </c>
       <c r="N101" t="n">
-        <v>-0.000155942941242842</v>
+        <v>3.26538114584945</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.00277795563934321</v>
+        <v>115.050262372096</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.142971742853543</v>
+        <v>7954.74058638475</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.0648809632243013</v>
+        <v>1510.0167103404</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.00687861328755916</v>
+        <v>465.64569858852</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.00347923619623905</v>
+        <v>76.6877227414263</v>
       </c>
       <c r="E102" t="n">
-        <v>0.00668823311335215</v>
+        <v>422.433131590279</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00813293610956267</v>
+        <v>311.193304395431</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.00411560929625772</v>
+        <v>502.890174817533</v>
       </c>
       <c r="H102" t="n">
-        <v>0.000220242947081459</v>
+        <v>26.5198619895746</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.000380361288476576</v>
+        <v>3.00648181607698</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0000227567152644383</v>
+        <v>0.269237177559133</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.0339097255536907</v>
+        <v>784.826372584872</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.00883031739400244</v>
+        <v>234.415835928151</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.0472768907972473</v>
+        <v>4033.71139419093</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.000180815053696186</v>
+        <v>3.27571899363611</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.00285155907666337</v>
+        <v>87.3674641179386</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.114985772319164</v>
+        <v>7443.01690075929</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44044</v>
+        <v>43678</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.0524025907137882</v>
+        <v>1519.23235370958</v>
       </c>
       <c r="C103" t="n">
-        <v>0.00213130311685985</v>
+        <v>473.764315114247</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.00313777527514349</v>
+        <v>74.8369546228934</v>
       </c>
       <c r="E103" t="n">
-        <v>0.00549980469702368</v>
+        <v>439.227786900676</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0186097032447043</v>
+        <v>318.139063828944</v>
       </c>
       <c r="G103" t="n">
-        <v>0.00157476227202109</v>
+        <v>511.768554437457</v>
       </c>
       <c r="H103" t="n">
-        <v>0.00112753648116793</v>
+        <v>25.9609723613544</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.000124516237135277</v>
+        <v>1.12466306258575</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.000068512301052175</v>
+        <v>0.609192492233948</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.0243070351422531</v>
+        <v>776.861010481107</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.0100299871123982</v>
+        <v>238.428569268179</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0109833226324737</v>
+        <v>4021.32650219723</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.000150396730281149</v>
+        <v>3.13968438305188</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.00225117299495635</v>
+        <v>103.609584640712</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.018208531808106</v>
+        <v>7492.73962775097</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1553.90562832833</v>
+      </c>
+      <c r="C104" t="n">
+        <v>488.468564454918</v>
+      </c>
+      <c r="D104" t="n">
+        <v>73.5207561822856</v>
+      </c>
+      <c r="E104" t="n">
+        <v>497.750744093163</v>
+      </c>
+      <c r="F104" t="n">
+        <v>314.120745852972</v>
+      </c>
+      <c r="G104" t="n">
+        <v>517.34645666279</v>
+      </c>
+      <c r="H104" t="n">
+        <v>26.274952944237</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.343784431046092</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.196448246312052</v>
+      </c>
+      <c r="K104" t="n">
+        <v>800.526603721613</v>
+      </c>
+      <c r="L104" t="n">
+        <v>239.912420808594</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4220.10122727551</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.14317194099284</v>
+      </c>
+      <c r="O104" t="n">
+        <v>104.3140187917</v>
+      </c>
+      <c r="P104" t="n">
+        <v>7799.53561126584</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1479.18480140637</v>
+      </c>
+      <c r="C105" t="n">
+        <v>539.396250567357</v>
+      </c>
+      <c r="D105" t="n">
+        <v>72.8393242606531</v>
+      </c>
+      <c r="E105" t="n">
+        <v>460.330194404964</v>
+      </c>
+      <c r="F105" t="n">
+        <v>328.404112026351</v>
+      </c>
+      <c r="G105" t="n">
+        <v>521.97036056896</v>
+      </c>
+      <c r="H105" t="n">
+        <v>26.2060299461759</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.313576426706378</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.268779794319753</v>
+      </c>
+      <c r="K105" t="n">
+        <v>743.66889425037</v>
+      </c>
+      <c r="L105" t="n">
+        <v>231.956962497947</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4092.03797862108</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3.27015416422366</v>
+      </c>
+      <c r="O105" t="n">
+        <v>96.9399124846576</v>
+      </c>
+      <c r="P105" t="n">
+        <v>7621.16147467182</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1649.8892772674</v>
+      </c>
+      <c r="C106" t="n">
+        <v>529.614970549987</v>
+      </c>
+      <c r="D106" t="n">
+        <v>72.1153840669536</v>
+      </c>
+      <c r="E106" t="n">
+        <v>499.989745254536</v>
+      </c>
+      <c r="F106" t="n">
+        <v>327.568883846411</v>
+      </c>
+      <c r="G106" t="n">
+        <v>570.669997300257</v>
+      </c>
+      <c r="H106" t="n">
+        <v>28.3438574193499</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.20501886017613</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.102509430088065</v>
+      </c>
+      <c r="K106" t="n">
+        <v>891.985805911296</v>
+      </c>
+      <c r="L106" t="n">
+        <v>244.690009620211</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4804.92451651786</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.17779233273001</v>
+      </c>
+      <c r="O106" t="n">
+        <v>90.6695909128934</v>
+      </c>
+      <c r="P106" t="n">
+        <v>8577.27154375865</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1530.6310323763</v>
+      </c>
+      <c r="C107" t="n">
+        <v>542.962125839951</v>
+      </c>
+      <c r="D107" t="n">
+        <v>64.5705558949297</v>
+      </c>
+      <c r="E107" t="n">
+        <v>533.117287721442</v>
+      </c>
+      <c r="F107" t="n">
+        <v>324.493585827734</v>
+      </c>
+      <c r="G107" t="n">
+        <v>585.526572999389</v>
+      </c>
+      <c r="H107" t="n">
+        <v>31.3200977397679</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.289554062309102</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.386072083078803</v>
+      </c>
+      <c r="K107" t="n">
+        <v>785.897984117288</v>
+      </c>
+      <c r="L107" t="n">
+        <v>227.299938912645</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5215.06169822847</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3.08857666463042</v>
+      </c>
+      <c r="O107" t="n">
+        <v>94.780696395846</v>
+      </c>
+      <c r="P107" t="n">
+        <v>8926.22785583384</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1445.44628396801</v>
+      </c>
+      <c r="C108" t="n">
+        <v>540.594335945293</v>
+      </c>
+      <c r="D108" t="n">
+        <v>75.2051304087159</v>
+      </c>
+      <c r="E108" t="n">
+        <v>460.884252737033</v>
+      </c>
+      <c r="F108" t="n">
+        <v>305.27950552829</v>
+      </c>
+      <c r="G108" t="n">
+        <v>524.643125522418</v>
+      </c>
+      <c r="H108" t="n">
+        <v>25.1909605525528</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.275813436706782</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.045968906117797</v>
+      </c>
+      <c r="K108" t="n">
+        <v>851.206234583248</v>
+      </c>
+      <c r="L108" t="n">
+        <v>219.501526712481</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4341.44140048311</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2.85007217930342</v>
+      </c>
+      <c r="O108" t="n">
+        <v>57.9208217084243</v>
+      </c>
+      <c r="P108" t="n">
+        <v>7779.68573356374</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1583.48750495444</v>
+      </c>
+      <c r="C109" t="n">
+        <v>545.491906716133</v>
+      </c>
+      <c r="D109" t="n">
+        <v>75.3409592787807</v>
+      </c>
+      <c r="E109" t="n">
+        <v>514.856435607002</v>
+      </c>
+      <c r="F109" t="n">
+        <v>407.127889887026</v>
+      </c>
+      <c r="G109" t="n">
+        <v>499.034303214418</v>
+      </c>
+      <c r="H109" t="n">
+        <v>24.7950866689151</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.477849636017637</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.265472020009798</v>
+      </c>
+      <c r="K109" t="n">
+        <v>927.877804338246</v>
+      </c>
+      <c r="L109" t="n">
+        <v>268.126740209896</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4424.67525190731</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3.0263810281117</v>
+      </c>
+      <c r="O109" t="n">
+        <v>60.3683373502281</v>
+      </c>
+      <c r="P109" t="n">
+        <v>8138.94737826839</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1452.24278891629</v>
+      </c>
+      <c r="C110" t="n">
+        <v>568.974180733084</v>
+      </c>
+      <c r="D110" t="n">
+        <v>65.8464925274576</v>
+      </c>
+      <c r="E110" t="n">
+        <v>430.545333185798</v>
+      </c>
+      <c r="F110" t="n">
+        <v>366.027684279284</v>
+      </c>
+      <c r="G110" t="n">
+        <v>396.316154398038</v>
+      </c>
+      <c r="H110" t="n">
+        <v>17.9622999796544</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.320755356779543</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.091644387651298</v>
+      </c>
+      <c r="K110" t="n">
+        <v>864.802264071474</v>
+      </c>
+      <c r="L110" t="n">
+        <v>254.084064763224</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3669.53292594562</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2.65768724188764</v>
+      </c>
+      <c r="O110" t="n">
+        <v>72.2615996630485</v>
+      </c>
+      <c r="P110" t="n">
+        <v>7042.7795466146</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1250.17498888766</v>
+      </c>
+      <c r="C111" t="n">
+        <v>606.430430183555</v>
+      </c>
+      <c r="D111" t="n">
+        <v>58.0947610706107</v>
+      </c>
+      <c r="E111" t="n">
+        <v>394.781457301417</v>
+      </c>
+      <c r="F111" t="n">
+        <v>425.977686701388</v>
+      </c>
+      <c r="G111" t="n">
+        <v>219.334267645178</v>
+      </c>
+      <c r="H111" t="n">
+        <v>17.0896686178124</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.101122299513683</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.101122299513683</v>
+      </c>
+      <c r="K111" t="n">
+        <v>944.58339975731</v>
+      </c>
+      <c r="L111" t="n">
+        <v>303.114092792264</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3091.00532923474</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2.22469058930102</v>
+      </c>
+      <c r="O111" t="n">
+        <v>77.9652929250494</v>
+      </c>
+      <c r="P111" t="n">
+        <v>6143.17969545623</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1118.41520996301</v>
+      </c>
+      <c r="C112" t="n">
+        <v>489.623866877524</v>
+      </c>
+      <c r="D112" t="n">
+        <v>58.7223814633871</v>
+      </c>
+      <c r="E112" t="n">
+        <v>426.79041117167</v>
+      </c>
+      <c r="F112" t="n">
+        <v>358.932309169467</v>
+      </c>
+      <c r="G112" t="n">
+        <v>317.669304735817</v>
+      </c>
+      <c r="H112" t="n">
+        <v>23.194579367993</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.10150800598684</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>822.976158538307</v>
+      </c>
+      <c r="L112" t="n">
+        <v>262.804227499929</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3414.42479737934</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.97940611674338</v>
+      </c>
+      <c r="O112" t="n">
+        <v>91.5602214001299</v>
+      </c>
+      <c r="P112" t="n">
+        <v>6301.41399565107</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1100.91639971007</v>
+      </c>
+      <c r="C113" t="n">
+        <v>555.640968104164</v>
+      </c>
+      <c r="D113" t="n">
+        <v>56.6006504602419</v>
+      </c>
+      <c r="E113" t="n">
+        <v>441.861125611684</v>
+      </c>
+      <c r="F113" t="n">
+        <v>403.580958264638</v>
+      </c>
+      <c r="G113" t="n">
+        <v>438.534511572709</v>
+      </c>
+      <c r="H113" t="n">
+        <v>30.9037623041014</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.241058988331524</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0482117976663049</v>
+      </c>
+      <c r="K113" t="n">
+        <v>770.135255921554</v>
+      </c>
+      <c r="L113" t="n">
+        <v>209.190990074097</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3694.13257258528</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2.02489550198481</v>
+      </c>
+      <c r="O113" t="n">
+        <v>92.9523459006358</v>
+      </c>
+      <c r="P113" t="n">
+        <v>6817.43746080151</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1027.10660452438</v>
+      </c>
+      <c r="C114" t="n">
+        <v>414.44806363543</v>
+      </c>
+      <c r="D114" t="n">
+        <v>50.7917089310856</v>
+      </c>
+      <c r="E114" t="n">
+        <v>472.213763689177</v>
+      </c>
+      <c r="F114" t="n">
+        <v>371.726885311701</v>
+      </c>
+      <c r="G114" t="n">
+        <v>472.257625268565</v>
+      </c>
+      <c r="H114" t="n">
+        <v>28.1591339669749</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.175446317551245</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.438615793878114</v>
+      </c>
+      <c r="K114" t="n">
+        <v>532.435712188642</v>
+      </c>
+      <c r="L114" t="n">
+        <v>168.691634325523</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3681.82869697166</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.9299094930637</v>
+      </c>
+      <c r="O114" t="n">
+        <v>66.1432617168195</v>
+      </c>
+      <c r="P114" t="n">
+        <v>6587.1758540409</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1126.59338567157</v>
+      </c>
+      <c r="C115" t="n">
+        <v>489.733614436692</v>
+      </c>
+      <c r="D115" t="n">
+        <v>51.3264214758486</v>
+      </c>
+      <c r="E115" t="n">
+        <v>480.436391498957</v>
+      </c>
+      <c r="F115" t="n">
+        <v>457.576724791226</v>
+      </c>
+      <c r="G115" t="n">
+        <v>523.567838117317</v>
+      </c>
+      <c r="H115" t="n">
+        <v>34.4093096355362</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.191695318303823</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0958476591519115</v>
+      </c>
+      <c r="K115" t="n">
+        <v>594.734725037611</v>
+      </c>
+      <c r="L115" t="n">
+        <v>163.276487365281</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4103.62167892994</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2.01280084219014</v>
+      </c>
+      <c r="O115" t="n">
+        <v>86.7421315324799</v>
+      </c>
+      <c r="P115" t="n">
+        <v>7356.30783990921</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>44075</v>
       </c>
-      <c r="B104" t="n">
-        <v>-0.0519507010172222</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.0124192995206665</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-0.00203269659961792</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.00847568394565626</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.00505808097875382</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.00678748841744598</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.000831710006977575</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-0.0000318668121021193</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-0.0000251871721732122</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-0.0203800819782893</v>
-      </c>
-      <c r="L104" t="n">
-        <v>-0.00861565847551816</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.000652506657911329</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-0.000140463861949851</v>
-      </c>
-      <c r="O104" t="n">
-        <v>-0.00138954789819216</v>
-      </c>
-      <c r="P104" t="n">
-        <v>-0.0213519906268893</v>
+      <c r="B116" t="n">
+        <v>1148.71428571429</v>
+      </c>
+      <c r="C116" t="n">
+        <v>585.333333333333</v>
+      </c>
+      <c r="D116" t="n">
+        <v>57.6666666666667</v>
+      </c>
+      <c r="E116" t="n">
+        <v>563.857142857143</v>
+      </c>
+      <c r="F116" t="n">
+        <v>353.571428571429</v>
+      </c>
+      <c r="G116" t="n">
+        <v>570.285714285714</v>
+      </c>
+      <c r="H116" t="n">
+        <v>32.7619047619048</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.0952380952380952</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>641.571428571429</v>
+      </c>
+      <c r="L116" t="n">
+        <v>172.714285714286</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4225.19047619048</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2.04761904761905</v>
+      </c>
+      <c r="O116" t="n">
+        <v>93.4761904761905</v>
+      </c>
+      <c r="P116" t="n">
+        <v>7633</v>
       </c>
     </row>
   </sheetData>
